--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -91,6 +91,28 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <strike val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -103,12 +125,84 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="50">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -327,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -415,6 +509,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <right style="thick"/>
       <bottom style="thin"/>
     </border>
@@ -422,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -511,9 +627,6 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -532,6 +645,9 @@
     <xf numFmtId="0" fontId="11" fillId="28" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -541,7 +657,7 @@
     <xf numFmtId="0" fontId="10" fillId="31" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -563,6 +679,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="37" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="39" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="45" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -910,8 +1068,8 @@
   </sheetPr>
   <dimension ref="A1:I4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1418,732 +1576,956 @@
       <c r="C16" s="29" t="n">
         <v>103</v>
       </c>
-      <c r="D16" s="30" t="inlineStr">
+      <c r="D16" s="40" t="inlineStr">
         <is>
-          <t>95.9</t>
+          <t>95.90</t>
         </is>
       </c>
-      <c r="E16" s="31" t="n">
+      <c r="E16" s="30" t="n">
         <v>536</v>
       </c>
-      <c r="F16" s="32" t="n">
+      <c r="F16" s="31" t="n">
         <v>515</v>
       </c>
-      <c r="G16" s="33" t="n">
+      <c r="G16" s="32" t="n">
         <v>21</v>
       </c>
-      <c r="H16" s="32" t="n">
+      <c r="H16" s="31" t="n">
         <v>96</v>
       </c>
-      <c r="I16" s="33" t="n">
+      <c r="I16" s="32" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="41" t="n">
+      <c r="A17" s="33" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="42" t="n">
+      <c r="B17" s="34" t="n">
         <v>44312.56297086806</v>
       </c>
-      <c r="C17" s="43" t="n">
+      <c r="C17" s="35" t="n">
         <v>96</v>
       </c>
-      <c r="D17" s="44" t="inlineStr">
+      <c r="D17" s="36" t="inlineStr">
         <is>
           <t>93.36</t>
         </is>
       </c>
-      <c r="E17" s="45" t="n">
+      <c r="E17" s="37" t="n">
         <v>512</v>
       </c>
-      <c r="F17" s="46" t="n">
+      <c r="F17" s="38" t="n">
         <v>478</v>
       </c>
-      <c r="G17" s="47" t="n">
+      <c r="G17" s="39" t="n">
         <v>34</v>
       </c>
-      <c r="H17" s="46" t="n">
+      <c r="H17" s="38" t="n">
         <v>93</v>
       </c>
-      <c r="I17" s="47" t="n">
+      <c r="I17" s="39" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="41" t="n">
+      <c r="A18" s="33" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="42" t="n">
+      <c r="B18" s="34" t="n">
         <v>44312.61090046296</v>
       </c>
-      <c r="C18" s="43" t="n">
+      <c r="C18" s="35" t="n">
         <v>102</v>
       </c>
-      <c r="D18" s="44" t="inlineStr">
+      <c r="D18" s="36" t="inlineStr">
         <is>
           <t>96.21</t>
         </is>
       </c>
-      <c r="E18" s="45" t="n">
+      <c r="E18" s="37" t="n">
         <v>522</v>
       </c>
-      <c r="F18" s="46" t="n">
+      <c r="F18" s="38" t="n">
         <v>508</v>
       </c>
-      <c r="G18" s="47" t="n">
+      <c r="G18" s="39" t="n">
         <v>14</v>
       </c>
-      <c r="H18" s="46" t="n">
+      <c r="H18" s="38" t="n">
         <v>92</v>
       </c>
-      <c r="I18" s="47" t="n">
+      <c r="I18" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="41" t="n">
+      <c r="A19" s="33" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="42" t="n">
+      <c r="B19" s="34" t="n">
         <v>44312.64613854167</v>
       </c>
-      <c r="C19" s="43" t="n">
+      <c r="C19" s="35" t="n">
         <v>93</v>
       </c>
-      <c r="D19" s="44" t="inlineStr">
+      <c r="D19" s="36" t="inlineStr">
         <is>
           <t>92.05</t>
         </is>
       </c>
-      <c r="E19" s="45" t="n">
+      <c r="E19" s="37" t="n">
         <v>493</v>
       </c>
-      <c r="F19" s="46" t="n">
+      <c r="F19" s="38" t="n">
         <v>463</v>
       </c>
-      <c r="G19" s="47" t="n">
+      <c r="G19" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="H19" s="46" t="n">
+      <c r="H19" s="38" t="n">
         <v>86</v>
       </c>
-      <c r="I19" s="47" t="n">
+      <c r="I19" s="39" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="41" t="n">
+      <c r="A20" s="33" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="42" t="n">
+      <c r="B20" s="34" t="n">
         <v>44312.64858355324</v>
       </c>
-      <c r="C20" s="43" t="n">
+      <c r="C20" s="35" t="n">
         <v>95</v>
       </c>
-      <c r="D20" s="44" t="inlineStr">
+      <c r="D20" s="36" t="inlineStr">
         <is>
           <t>93.68</t>
         </is>
       </c>
-      <c r="E20" s="45" t="n">
+      <c r="E20" s="37" t="n">
         <v>499</v>
       </c>
-      <c r="F20" s="46" t="n">
+      <c r="F20" s="38" t="n">
         <v>474</v>
       </c>
-      <c r="G20" s="47" t="n">
+      <c r="G20" s="39" t="n">
         <v>25</v>
       </c>
-      <c r="H20" s="46" t="n">
+      <c r="H20" s="38" t="n">
         <v>90</v>
       </c>
-      <c r="I20" s="47" t="n">
+      <c r="I20" s="39" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="41" t="n">
+      <c r="A21" s="33" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="42" t="n">
+      <c r="B21" s="34" t="n">
         <v>44312.67528114584</v>
       </c>
-      <c r="C21" s="43" t="n">
+      <c r="C21" s="35" t="n">
         <v>99</v>
       </c>
-      <c r="D21" s="44" t="inlineStr">
+      <c r="D21" s="36" t="inlineStr">
         <is>
           <t>95.01</t>
         </is>
       </c>
-      <c r="E21" s="45" t="n">
+      <c r="E21" s="37" t="n">
         <v>514</v>
       </c>
-      <c r="F21" s="46" t="n">
+      <c r="F21" s="38" t="n">
         <v>495</v>
       </c>
-      <c r="G21" s="47" t="n">
+      <c r="G21" s="39" t="n">
         <v>19</v>
       </c>
-      <c r="H21" s="46" t="n">
+      <c r="H21" s="38" t="n">
         <v>89</v>
       </c>
-      <c r="I21" s="47" t="n">
+      <c r="I21" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="41" t="n">
+      <c r="A22" s="33" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="42" t="n">
+      <c r="B22" s="34" t="n">
         <v>44313.48644244213</v>
       </c>
-      <c r="C22" s="43" t="n">
+      <c r="C22" s="35" t="n">
         <v>92</v>
       </c>
-      <c r="D22" s="44" t="inlineStr">
+      <c r="D22" s="36" t="inlineStr">
         <is>
           <t>89.51</t>
         </is>
       </c>
-      <c r="E22" s="45" t="n">
+      <c r="E22" s="37" t="n">
         <v>509</v>
       </c>
-      <c r="F22" s="46" t="n">
+      <c r="F22" s="38" t="n">
         <v>461</v>
       </c>
-      <c r="G22" s="47" t="n">
+      <c r="G22" s="39" t="n">
         <v>48</v>
       </c>
-      <c r="H22" s="46" t="n">
+      <c r="H22" s="38" t="n">
         <v>81</v>
       </c>
-      <c r="I22" s="47" t="n">
+      <c r="I22" s="39" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="41" t="n">
+      <c r="A23" s="33" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="42" t="n">
+      <c r="B23" s="34" t="n">
         <v>44313.71834622685</v>
       </c>
-      <c r="C23" s="43" t="n">
+      <c r="C23" s="35" t="n">
         <v>87</v>
       </c>
-      <c r="D23" s="44" t="inlineStr">
+      <c r="D23" s="36" t="inlineStr">
         <is>
           <t>94.37</t>
         </is>
       </c>
-      <c r="E23" s="45" t="n">
+      <c r="E23" s="37" t="n">
         <v>446</v>
       </c>
-      <c r="F23" s="46" t="n">
+      <c r="F23" s="38" t="n">
         <v>436</v>
       </c>
-      <c r="G23" s="47" t="n">
+      <c r="G23" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="46" t="n">
+      <c r="H23" s="38" t="n">
         <v>83</v>
       </c>
-      <c r="I23" s="47" t="n">
+      <c r="I23" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="41" t="n">
+      <c r="A24" s="33" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="42" t="n">
+      <c r="B24" s="34" t="n">
         <v>44313.76619</v>
       </c>
-      <c r="C24" s="43" t="n">
+      <c r="C24" s="35" t="n">
         <v>91</v>
       </c>
-      <c r="D24" s="44" t="inlineStr">
+      <c r="D24" s="36" t="inlineStr">
         <is>
           <t>92.64</t>
         </is>
       </c>
-      <c r="E24" s="45" t="n">
+      <c r="E24" s="37" t="n">
         <v>484</v>
       </c>
-      <c r="F24" s="46" t="n">
+      <c r="F24" s="38" t="n">
         <v>453</v>
       </c>
-      <c r="G24" s="47" t="n">
+      <c r="G24" s="39" t="n">
         <v>31</v>
       </c>
-      <c r="H24" s="46" t="n">
+      <c r="H24" s="38" t="n">
         <v>86</v>
       </c>
-      <c r="I24" s="47" t="n">
+      <c r="I24" s="39" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="41" t="n">
+      <c r="A25" s="33" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="42" t="n">
+      <c r="B25" s="34" t="n">
         <v>44314.46535142361</v>
       </c>
-      <c r="C25" s="43" t="n">
+      <c r="C25" s="35" t="n">
         <v>97</v>
       </c>
-      <c r="D25" s="44" t="inlineStr">
+      <c r="D25" s="36" t="inlineStr">
         <is>
           <t>95.12</t>
         </is>
       </c>
-      <c r="E25" s="45" t="n">
+      <c r="E25" s="37" t="n">
         <v>502</v>
       </c>
-      <c r="F25" s="46" t="n">
+      <c r="F25" s="38" t="n">
         <v>487</v>
       </c>
-      <c r="G25" s="47" t="n">
+      <c r="G25" s="39" t="n">
         <v>15</v>
       </c>
-      <c r="H25" s="46" t="n">
+      <c r="H25" s="38" t="n">
         <v>93</v>
       </c>
-      <c r="I25" s="47" t="n">
+      <c r="I25" s="39" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="41" t="n">
+      <c r="A26" s="33" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="42" t="n">
+      <c r="B26" s="34" t="n">
         <v>44314.46615027777</v>
       </c>
-      <c r="C26" s="43" t="n">
+      <c r="C26" s="35" t="n">
         <v>95</v>
       </c>
-      <c r="D26" s="44" t="inlineStr">
+      <c r="D26" s="36" t="inlineStr">
         <is>
           <t>97.14</t>
         </is>
       </c>
-      <c r="E26" s="45" t="n">
+      <c r="E26" s="37" t="n">
         <v>482</v>
       </c>
-      <c r="F26" s="46" t="n">
+      <c r="F26" s="38" t="n">
         <v>475</v>
       </c>
-      <c r="G26" s="47" t="n">
+      <c r="G26" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="H26" s="46" t="n">
+      <c r="H26" s="38" t="n">
         <v>86</v>
       </c>
-      <c r="I26" s="47" t="n">
+      <c r="I26" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="41" t="n">
+      <c r="A27" s="33" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="42" t="n">
+      <c r="B27" s="34" t="n">
         <v>44314.46709310186</v>
       </c>
-      <c r="C27" s="43" t="n">
+      <c r="C27" s="35" t="n">
         <v>94</v>
       </c>
-      <c r="D27" s="44" t="inlineStr">
+      <c r="D27" s="36" t="inlineStr">
         <is>
           <t>93.45</t>
         </is>
       </c>
-      <c r="E27" s="45" t="n">
+      <c r="E27" s="37" t="n">
         <v>498</v>
       </c>
-      <c r="F27" s="46" t="n">
+      <c r="F27" s="38" t="n">
         <v>471</v>
       </c>
-      <c r="G27" s="47" t="n">
+      <c r="G27" s="39" t="n">
         <v>27</v>
       </c>
-      <c r="H27" s="46" t="n">
+      <c r="H27" s="38" t="n">
         <v>87</v>
       </c>
-      <c r="I27" s="47" t="n">
+      <c r="I27" s="39" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="41" t="n">
+      <c r="A28" s="33" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="42" t="n">
+      <c r="B28" s="34" t="n">
         <v>44314.46806174768</v>
       </c>
-      <c r="C28" s="43" t="n">
+      <c r="C28" s="35" t="n">
         <v>90</v>
       </c>
-      <c r="D28" s="44" t="inlineStr">
+      <c r="D28" s="36" t="inlineStr">
         <is>
           <t>92.06</t>
         </is>
       </c>
-      <c r="E28" s="45" t="n">
+      <c r="E28" s="37" t="n">
         <v>485</v>
       </c>
-      <c r="F28" s="46" t="n">
+      <c r="F28" s="38" t="n">
         <v>452</v>
       </c>
-      <c r="G28" s="47" t="n">
+      <c r="G28" s="39" t="n">
         <v>33</v>
       </c>
-      <c r="H28" s="46" t="n">
+      <c r="H28" s="38" t="n">
         <v>81</v>
       </c>
-      <c r="I28" s="47" t="n">
+      <c r="I28" s="39" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="41" t="n">
+      <c r="A29" s="33" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="42" t="n">
+      <c r="B29" s="34" t="n">
         <v>44314.54006215278</v>
       </c>
-      <c r="C29" s="43" t="n">
+      <c r="C29" s="35" t="n">
         <v>93</v>
       </c>
-      <c r="D29" s="44" t="inlineStr">
+      <c r="D29" s="36" t="inlineStr">
         <is>
           <t>94.13</t>
         </is>
       </c>
-      <c r="E29" s="45" t="n">
+      <c r="E29" s="37" t="n">
         <v>485</v>
       </c>
-      <c r="F29" s="46" t="n">
+      <c r="F29" s="38" t="n">
         <v>465</v>
       </c>
-      <c r="G29" s="47" t="n">
+      <c r="G29" s="39" t="n">
         <v>20</v>
       </c>
-      <c r="H29" s="46" t="n">
+      <c r="H29" s="38" t="n">
         <v>83</v>
       </c>
-      <c r="I29" s="47" t="n">
+      <c r="I29" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="41" t="n">
+      <c r="A30" s="33" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="42" t="n">
+      <c r="B30" s="34" t="n">
         <v>44314.703115</v>
       </c>
-      <c r="C30" s="43" t="n">
+      <c r="C30" s="35" t="n">
         <v>87</v>
       </c>
-      <c r="D30" s="44" t="inlineStr">
+      <c r="D30" s="36" t="inlineStr">
         <is>
           <t>94.16</t>
         </is>
       </c>
-      <c r="E30" s="45" t="n">
+      <c r="E30" s="37" t="n">
         <v>450</v>
       </c>
-      <c r="F30" s="46" t="n">
+      <c r="F30" s="38" t="n">
         <v>435</v>
       </c>
-      <c r="G30" s="47" t="n">
+      <c r="G30" s="39" t="n">
         <v>15</v>
       </c>
-      <c r="H30" s="46" t="n">
+      <c r="H30" s="38" t="n">
         <v>76</v>
       </c>
-      <c r="I30" s="47" t="n">
+      <c r="I30" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="41" t="n">
+      <c r="A31" s="33" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="42" t="n">
+      <c r="B31" s="34" t="n">
         <v>44314.7040015625</v>
       </c>
-      <c r="C31" s="43" t="n">
+      <c r="C31" s="35" t="n">
         <v>89</v>
       </c>
-      <c r="D31" s="44" t="inlineStr">
+      <c r="D31" s="36" t="inlineStr">
         <is>
           <t>95.28</t>
         </is>
       </c>
-      <c r="E31" s="45" t="n">
+      <c r="E31" s="37" t="n">
         <v>460</v>
       </c>
-      <c r="F31" s="46" t="n">
+      <c r="F31" s="38" t="n">
         <v>444</v>
       </c>
-      <c r="G31" s="47" t="n">
+      <c r="G31" s="39" t="n">
         <v>16</v>
       </c>
-      <c r="H31" s="46" t="n">
+      <c r="H31" s="38" t="n">
         <v>84</v>
       </c>
-      <c r="I31" s="47" t="n">
+      <c r="I31" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="41" t="n">
+      <c r="A32" s="33" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="42" t="n">
+      <c r="B32" s="34" t="n">
         <v>44314.8126249537</v>
       </c>
-      <c r="C32" s="43" t="n">
+      <c r="C32" s="35" t="n">
         <v>101</v>
       </c>
-      <c r="D32" s="44" t="inlineStr">
+      <c r="D32" s="36" t="inlineStr">
         <is>
           <t>97.68</t>
         </is>
       </c>
-      <c r="E32" s="45" t="n">
+      <c r="E32" s="37" t="n">
         <v>512</v>
       </c>
-      <c r="F32" s="46" t="n">
+      <c r="F32" s="38" t="n">
         <v>506</v>
       </c>
-      <c r="G32" s="47" t="n">
+      <c r="G32" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="H32" s="46" t="n">
+      <c r="H32" s="38" t="n">
         <v>90</v>
       </c>
-      <c r="I32" s="47" t="n">
+      <c r="I32" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="41" t="n">
+      <c r="A33" s="33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="42" t="n">
+      <c r="B33" s="34" t="n">
         <v>44314.92988149306</v>
       </c>
-      <c r="C33" s="43" t="n">
+      <c r="C33" s="35" t="n">
         <v>95</v>
       </c>
-      <c r="D33" s="44" t="inlineStr">
+      <c r="D33" s="36" t="inlineStr">
         <is>
           <t>95.59</t>
         </is>
       </c>
-      <c r="E33" s="45" t="n">
+      <c r="E33" s="37" t="n">
         <v>492</v>
       </c>
-      <c r="F33" s="46" t="n">
+      <c r="F33" s="38" t="n">
         <v>477</v>
       </c>
-      <c r="G33" s="47" t="n">
+      <c r="G33" s="39" t="n">
         <v>15</v>
       </c>
-      <c r="H33" s="46" t="n">
+      <c r="H33" s="38" t="n">
         <v>86</v>
       </c>
-      <c r="I33" s="47" t="n">
+      <c r="I33" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="41" t="n">
+      <c r="A34" s="33" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="42" t="n">
+      <c r="B34" s="34" t="n">
         <v>44315.49031497685</v>
       </c>
-      <c r="C34" s="43" t="n">
+      <c r="C34" s="35" t="n">
         <v>93</v>
       </c>
-      <c r="D34" s="44" t="inlineStr">
+      <c r="D34" s="36" t="inlineStr">
         <is>
           <t>91.32</t>
         </is>
       </c>
-      <c r="E34" s="45" t="n">
+      <c r="E34" s="37" t="n">
         <v>499</v>
       </c>
-      <c r="F34" s="46" t="n">
+      <c r="F34" s="38" t="n">
         <v>463</v>
       </c>
-      <c r="G34" s="47" t="n">
+      <c r="G34" s="39" t="n">
         <v>36</v>
       </c>
-      <c r="H34" s="46" t="n">
+      <c r="H34" s="38" t="n">
         <v>86</v>
       </c>
-      <c r="I34" s="47" t="n">
+      <c r="I34" s="39" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="41" t="n">
+      <c r="A35" s="33" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="42" t="n">
+      <c r="B35" s="34" t="n">
         <v>44315.50159837963</v>
       </c>
-      <c r="C35" s="43" t="n">
+      <c r="C35" s="35" t="n">
         <v>87</v>
       </c>
-      <c r="D35" s="44" t="inlineStr">
+      <c r="D35" s="36" t="inlineStr">
         <is>
           <t>91.93</t>
         </is>
       </c>
-      <c r="E35" s="45" t="n">
+      <c r="E35" s="37" t="n">
         <v>450</v>
       </c>
-      <c r="F35" s="46" t="n">
+      <c r="F35" s="38" t="n">
         <v>433</v>
       </c>
-      <c r="G35" s="47" t="n">
+      <c r="G35" s="39" t="n">
         <v>17</v>
       </c>
-      <c r="H35" s="46" t="n">
+      <c r="H35" s="38" t="n">
         <v>79</v>
       </c>
-      <c r="I35" s="47" t="n">
+      <c r="I35" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="41" t="n">
+      <c r="A36" s="33" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="42" t="n">
+      <c r="B36" s="34" t="n">
         <v>44315.5024756713</v>
       </c>
-      <c r="C36" s="43" t="n">
+      <c r="C36" s="35" t="n">
         <v>90</v>
       </c>
-      <c r="D36" s="44" t="inlineStr">
+      <c r="D36" s="36" t="inlineStr">
         <is>
           <t>90.18</t>
         </is>
       </c>
-      <c r="E36" s="45" t="n">
+      <c r="E36" s="37" t="n">
         <v>492</v>
       </c>
-      <c r="F36" s="46" t="n">
+      <c r="F36" s="38" t="n">
         <v>450</v>
       </c>
-      <c r="G36" s="47" t="n">
+      <c r="G36" s="39" t="n">
         <v>42</v>
       </c>
-      <c r="H36" s="46" t="n">
+      <c r="H36" s="38" t="n">
         <v>82</v>
       </c>
-      <c r="I36" s="47" t="n">
+      <c r="I36" s="39" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="41" t="n">
+      <c r="A37" s="33" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="42" t="n">
+      <c r="B37" s="34" t="n">
         <v>44315.50328333333</v>
       </c>
-      <c r="C37" s="43" t="n">
+      <c r="C37" s="35" t="n">
         <v>89</v>
       </c>
-      <c r="D37" s="44" t="inlineStr">
+      <c r="D37" s="36" t="inlineStr">
         <is>
           <t>88.14</t>
         </is>
       </c>
-      <c r="E37" s="45" t="n">
+      <c r="E37" s="37" t="n">
         <v>495</v>
       </c>
-      <c r="F37" s="46" t="n">
+      <c r="F37" s="38" t="n">
         <v>446</v>
       </c>
-      <c r="G37" s="47" t="n">
+      <c r="G37" s="39" t="n">
         <v>49</v>
       </c>
-      <c r="H37" s="46" t="n">
+      <c r="H37" s="38" t="n">
         <v>79</v>
       </c>
-      <c r="I37" s="47" t="n">
+      <c r="I37" s="39" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="41" t="n">
+      <c r="A38" s="33" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="n">
-        <v>44315.66456087104</v>
-      </c>
-      <c r="C38" s="43" t="n">
+      <c r="B38" s="34" t="n">
+        <v>44315.66456086806</v>
+      </c>
+      <c r="C38" s="35" t="n">
         <v>92</v>
       </c>
-      <c r="D38" s="44" t="inlineStr">
+      <c r="D38" s="36" t="inlineStr">
         <is>
           <t>96.45</t>
         </is>
       </c>
-      <c r="E38" s="45" t="n">
+      <c r="E38" s="37" t="n">
         <v>474</v>
       </c>
-      <c r="F38" s="46" t="n">
+      <c r="F38" s="38" t="n">
         <v>462</v>
       </c>
-      <c r="G38" s="47" t="n">
+      <c r="G38" s="39" t="n">
         <v>12</v>
       </c>
-      <c r="H38" s="46" t="n">
+      <c r="H38" s="38" t="n">
         <v>86</v>
       </c>
-      <c r="I38" s="47" t="n">
+      <c r="I38" s="39" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="12" t="n"/>
+      <c r="A39" s="33" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="34" t="n">
+        <v>44316.44882023148</v>
+      </c>
+      <c r="C39" s="35" t="n">
+        <v>92</v>
+      </c>
+      <c r="D39" s="36" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="E39" s="37" t="n">
+        <v>484</v>
+      </c>
+      <c r="F39" s="38" t="n">
+        <v>459</v>
+      </c>
+      <c r="G39" s="39" t="n">
+        <v>25</v>
+      </c>
+      <c r="H39" s="38" t="n">
+        <v>84</v>
+      </c>
+      <c r="I39" s="39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="12" t="n"/>
+      <c r="A40" s="33" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="34" t="n">
+        <v>44316.45132209491</v>
+      </c>
+      <c r="C40" s="35" t="n">
+        <v>95</v>
+      </c>
+      <c r="D40" s="36" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="E40" s="37" t="n">
+        <v>507</v>
+      </c>
+      <c r="F40" s="38" t="n">
+        <v>476</v>
+      </c>
+      <c r="G40" s="39" t="n">
+        <v>31</v>
+      </c>
+      <c r="H40" s="38" t="n">
+        <v>83</v>
+      </c>
+      <c r="I40" s="39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="12" t="n"/>
+      <c r="A41" s="33" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="34" t="n">
+        <v>44316.47396231481</v>
+      </c>
+      <c r="C41" s="35" t="n">
+        <v>102</v>
+      </c>
+      <c r="D41" s="36" t="inlineStr">
+        <is>
+          <t>96.40</t>
+        </is>
+      </c>
+      <c r="E41" s="37" t="n">
+        <v>521</v>
+      </c>
+      <c r="F41" s="38" t="n">
+        <v>509</v>
+      </c>
+      <c r="G41" s="39" t="n">
+        <v>12</v>
+      </c>
+      <c r="H41" s="38" t="n">
+        <v>94</v>
+      </c>
+      <c r="I41" s="39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="12" t="n"/>
+      <c r="A42" s="41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="42" t="n">
+        <v>44316.47610799769</v>
+      </c>
+      <c r="C42" s="43" t="n">
+        <v>99</v>
+      </c>
+      <c r="D42" s="44" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="E42" s="45" t="n">
+        <v>521</v>
+      </c>
+      <c r="F42" s="46" t="n">
+        <v>496</v>
+      </c>
+      <c r="G42" s="47" t="n">
+        <v>25</v>
+      </c>
+      <c r="H42" s="46" t="n">
+        <v>85</v>
+      </c>
+      <c r="I42" s="47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="12" t="n"/>
+      <c r="A43" s="41" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="42" t="n">
+        <v>44316.6135946875</v>
+      </c>
+      <c r="C43" s="43" t="n">
+        <v>104</v>
+      </c>
+      <c r="D43" s="44" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="E43" s="45" t="n">
+        <v>546</v>
+      </c>
+      <c r="F43" s="46" t="n">
+        <v>521</v>
+      </c>
+      <c r="G43" s="47" t="n">
+        <v>25</v>
+      </c>
+      <c r="H43" s="46" t="n">
+        <v>99</v>
+      </c>
+      <c r="I43" s="47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
-      <c r="B44" s="12" t="n"/>
+      <c r="A44" s="48" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="49" t="n">
+        <v>44316.68296237269</v>
+      </c>
+      <c r="C44" s="50" t="n">
+        <v>99</v>
+      </c>
+      <c r="D44" s="51" t="inlineStr">
+        <is>
+          <t>93.6</t>
+        </is>
+      </c>
+      <c r="E44" s="52" t="n">
+        <v>521</v>
+      </c>
+      <c r="F44" s="53" t="n">
+        <v>497</v>
+      </c>
+      <c r="G44" s="54" t="n">
+        <v>24</v>
+      </c>
+      <c r="H44" s="53" t="n">
+        <v>92</v>
+      </c>
+      <c r="I44" s="54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
-      <c r="B45" s="12" t="n"/>
+      <c r="A45" s="55" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="56" t="n">
+        <v>44316.85071179398</v>
+      </c>
+      <c r="C45" s="57" t="n">
+        <v>89</v>
+      </c>
+      <c r="D45" s="58" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="E45" s="59" t="n">
+        <v>480</v>
+      </c>
+      <c r="F45" s="60" t="n">
+        <v>445</v>
+      </c>
+      <c r="G45" s="61" t="n">
+        <v>35</v>
+      </c>
+      <c r="H45" s="60" t="n">
+        <v>85</v>
+      </c>
+      <c r="I45" s="61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
-      <c r="B46" s="12" t="n"/>
+      <c r="A46" s="55" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="56" t="n">
+        <v>44316.92595446025</v>
+      </c>
+      <c r="C46" s="57" t="n">
+        <v>87</v>
+      </c>
+      <c r="D46" s="58" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="E46" s="59" t="n">
+        <v>468</v>
+      </c>
+      <c r="F46" s="60" t="n">
+        <v>434</v>
+      </c>
+      <c r="G46" s="61" t="n">
+        <v>34</v>
+      </c>
+      <c r="H46" s="60" t="n">
+        <v>79</v>
+      </c>
+      <c r="I46" s="61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -2501,7 +2501,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="56" t="n">
-        <v>44316.92595446025</v>
+        <v>44316.92595445602</v>
       </c>
       <c r="C46" s="57" t="n">
         <v>87</v>
@@ -2528,10 +2528,66 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="12" t="n"/>
+      <c r="A47" s="55" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="56" t="n">
+        <v>44317.57568545139</v>
+      </c>
+      <c r="C47" s="57" t="n">
+        <v>94</v>
+      </c>
+      <c r="D47" s="58" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="E47" s="59" t="n">
+        <v>494</v>
+      </c>
+      <c r="F47" s="60" t="n">
+        <v>472</v>
+      </c>
+      <c r="G47" s="61" t="n">
+        <v>22</v>
+      </c>
+      <c r="H47" s="60" t="n">
+        <v>87</v>
+      </c>
+      <c r="I47" s="61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="12" t="n"/>
+      <c r="A48" s="55" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="56" t="n">
+        <v>44317.57683174233</v>
+      </c>
+      <c r="C48" s="57" t="n">
+        <v>101</v>
+      </c>
+      <c r="D48" s="58" t="inlineStr">
+        <is>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="E48" s="59" t="n">
+        <v>510</v>
+      </c>
+      <c r="F48" s="60" t="n">
+        <v>505</v>
+      </c>
+      <c r="G48" s="61" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" s="60" t="n">
+        <v>93</v>
+      </c>
+      <c r="I48" s="61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\WPMTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EAD662-788F-446F-84EB-F57689C1C9E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670FACAF-422F-43FC-964C-303EDB8A419E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Nr.</t>
   </si>
@@ -201,6 +201,21 @@
   <si>
     <t>98.14</t>
   </si>
+  <si>
+    <t>95.79</t>
+  </si>
+  <si>
+    <t>94.96</t>
+  </si>
+  <si>
+    <t>95.2</t>
+  </si>
+  <si>
+    <t>94.92</t>
+  </si>
+  <si>
+    <t>94.67</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,8 +350,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="62">
+  <fills count="68">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,8 +729,44 @@
         <bgColor rgb="FFDD5151"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -846,11 +908,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1075,6 +1148,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="61" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="62" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="63" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="64" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="63" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="65" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="66" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="67" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1360,7 +1454,7 @@
   <dimension ref="A1:I4434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,30 +3008,160 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="75"/>
+      <c r="A54" s="76">
+        <v>53</v>
+      </c>
+      <c r="B54" s="77">
+        <v>44317.962823263893</v>
+      </c>
+      <c r="C54" s="78">
+        <v>91</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="80">
+        <v>466</v>
+      </c>
+      <c r="F54" s="81">
+        <v>455</v>
+      </c>
+      <c r="G54" s="82">
+        <v>11</v>
+      </c>
+      <c r="H54" s="81">
+        <v>84</v>
+      </c>
+      <c r="I54" s="82">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
+      <c r="A55" s="76">
+        <v>54</v>
+      </c>
+      <c r="B55" s="77">
+        <v>44318.508196076393</v>
+      </c>
+      <c r="C55" s="78">
+        <v>94</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="80">
+        <v>487</v>
+      </c>
+      <c r="F55" s="81">
+        <v>471</v>
+      </c>
+      <c r="G55" s="82">
+        <v>16</v>
+      </c>
+      <c r="H55" s="81">
+        <v>86</v>
+      </c>
+      <c r="I55" s="82">
+        <v>3</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
+      <c r="A56" s="76">
+        <v>55</v>
+      </c>
+      <c r="B56" s="77">
+        <v>44318.51575486111</v>
+      </c>
+      <c r="C56" s="78">
+        <v>95</v>
+      </c>
+      <c r="D56" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="80">
+        <v>491</v>
+      </c>
+      <c r="F56" s="81">
+        <v>476</v>
+      </c>
+      <c r="G56" s="82">
+        <v>15</v>
+      </c>
+      <c r="H56" s="81">
+        <v>86</v>
+      </c>
+      <c r="I56" s="82">
+        <v>2</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
+      <c r="A57" s="76">
+        <v>56</v>
+      </c>
+      <c r="B57" s="77">
+        <v>44318.681858530093</v>
+      </c>
+      <c r="C57" s="78">
+        <v>97</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="80">
+        <v>505</v>
+      </c>
+      <c r="F57" s="81">
+        <v>486</v>
+      </c>
+      <c r="G57" s="82">
+        <v>19</v>
+      </c>
+      <c r="H57" s="81">
+        <v>87</v>
+      </c>
+      <c r="I57" s="82">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="12"/>
+      <c r="A58" s="76">
+        <v>57</v>
+      </c>
+      <c r="B58" s="77">
+        <v>44318.689170740741</v>
+      </c>
+      <c r="C58" s="78">
+        <v>96</v>
+      </c>
+      <c r="D58" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="80">
+        <v>497</v>
+      </c>
+      <c r="F58" s="81">
+        <v>480</v>
+      </c>
+      <c r="G58" s="82">
+        <v>17</v>
+      </c>
+      <c r="H58" s="81">
+        <v>86</v>
+      </c>
+      <c r="I58" s="82">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="12"/>
+      <c r="A59" s="76"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="82"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="12"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -157,6 +157,28 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <strike val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -169,12 +191,84 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="74">
+  <fills count="86">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -609,7 +703,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -763,6 +857,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <right style="thick"/>
       <bottom style="thin"/>
     </border>
@@ -770,7 +886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -1037,6 +1153,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="73" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="74" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="75" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="76" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="75" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="77" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="78" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="79" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="80" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="81" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="82" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="81" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="83" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="84" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="85" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1543,7 @@
   <dimension ref="A1:I4434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+      <selection activeCell="A70" sqref="A70:I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3313,7 +3471,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="84" t="n">
-        <v>44319.53981607351</v>
+        <v>44319.53981607639</v>
       </c>
       <c r="C62" s="85" t="n">
         <v>98</v>
@@ -3340,49 +3498,469 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="12" t="n"/>
+      <c r="A63" s="83" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="84" t="n">
+        <v>44319.77530127315</v>
+      </c>
+      <c r="C63" s="85" t="n">
+        <v>96</v>
+      </c>
+      <c r="D63" s="86" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="E63" s="87" t="n">
+        <v>503</v>
+      </c>
+      <c r="F63" s="88" t="n">
+        <v>481</v>
+      </c>
+      <c r="G63" s="89" t="n">
+        <v>22</v>
+      </c>
+      <c r="H63" s="88" t="n">
+        <v>91</v>
+      </c>
+      <c r="I63" s="89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64">
-      <c r="B64" s="12" t="n"/>
+      <c r="A64" s="83" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="84" t="n">
+        <v>44319.83623872685</v>
+      </c>
+      <c r="C64" s="85" t="n">
+        <v>98</v>
+      </c>
+      <c r="D64" s="86" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="E64" s="87" t="n">
+        <v>496</v>
+      </c>
+      <c r="F64" s="88" t="n">
+        <v>488</v>
+      </c>
+      <c r="G64" s="89" t="n">
+        <v>8</v>
+      </c>
+      <c r="H64" s="88" t="n">
+        <v>87</v>
+      </c>
+      <c r="I64" s="89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
-      <c r="B65" s="12" t="n"/>
+      <c r="A65" s="83" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" s="84" t="n">
+        <v>44320.5101380324</v>
+      </c>
+      <c r="C65" s="85" t="n">
+        <v>96</v>
+      </c>
+      <c r="D65" s="86" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="E65" s="87" t="n">
+        <v>511</v>
+      </c>
+      <c r="F65" s="88" t="n">
+        <v>479</v>
+      </c>
+      <c r="G65" s="89" t="n">
+        <v>32</v>
+      </c>
+      <c r="H65" s="88" t="n">
+        <v>87</v>
+      </c>
+      <c r="I65" s="89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="66">
-      <c r="B66" s="12" t="n"/>
+      <c r="A66" s="90" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="91" t="n">
+        <v>44320.51111181713</v>
+      </c>
+      <c r="C66" s="92" t="n">
+        <v>97</v>
+      </c>
+      <c r="D66" s="93" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="E66" s="94" t="n">
+        <v>523</v>
+      </c>
+      <c r="F66" s="95" t="n">
+        <v>485</v>
+      </c>
+      <c r="G66" s="96" t="n">
+        <v>38</v>
+      </c>
+      <c r="H66" s="95" t="n">
+        <v>89</v>
+      </c>
+      <c r="I66" s="96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
-      <c r="B67" s="12" t="n"/>
+      <c r="A67" s="90" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="91" t="n">
+        <v>44320.64885880787</v>
+      </c>
+      <c r="C67" s="92" t="n">
+        <v>107</v>
+      </c>
+      <c r="D67" s="93" t="inlineStr">
+        <is>
+          <t>96.74</t>
+        </is>
+      </c>
+      <c r="E67" s="94" t="n">
+        <v>546</v>
+      </c>
+      <c r="F67" s="95" t="n">
+        <v>534</v>
+      </c>
+      <c r="G67" s="96" t="n">
+        <v>12</v>
+      </c>
+      <c r="H67" s="95" t="n">
+        <v>95</v>
+      </c>
+      <c r="I67" s="96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
-      <c r="B68" s="12" t="n"/>
+      <c r="A68" s="90" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="91" t="n">
+        <v>44320.76720237268</v>
+      </c>
+      <c r="C68" s="92" t="n">
+        <v>104</v>
+      </c>
+      <c r="D68" s="93" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="E68" s="94" t="n">
+        <v>523</v>
+      </c>
+      <c r="F68" s="95" t="n">
+        <v>518</v>
+      </c>
+      <c r="G68" s="96" t="n">
+        <v>5</v>
+      </c>
+      <c r="H68" s="95" t="n">
+        <v>95</v>
+      </c>
+      <c r="I68" s="96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="12" t="n"/>
+      <c r="A69" s="90" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="91" t="n">
+        <v>44321.52213138889</v>
+      </c>
+      <c r="C69" s="92" t="n">
+        <v>93</v>
+      </c>
+      <c r="D69" s="93" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="E69" s="94" t="n">
+        <v>497</v>
+      </c>
+      <c r="F69" s="95" t="n">
+        <v>466</v>
+      </c>
+      <c r="G69" s="96" t="n">
+        <v>31</v>
+      </c>
+      <c r="H69" s="95" t="n">
+        <v>84</v>
+      </c>
+      <c r="I69" s="96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="12" t="n"/>
+      <c r="A70" s="97" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="98" t="n">
+        <v>44321.52332702546</v>
+      </c>
+      <c r="C70" s="99" t="n">
+        <v>106</v>
+      </c>
+      <c r="D70" s="100" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="E70" s="101" t="n">
+        <v>533</v>
+      </c>
+      <c r="F70" s="102" t="n">
+        <v>528</v>
+      </c>
+      <c r="G70" s="103" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" s="102" t="n">
+        <v>99</v>
+      </c>
+      <c r="I70" s="103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="12" t="n"/>
+      <c r="A71" s="97" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="98" t="n">
+        <v>44321.53082283565</v>
+      </c>
+      <c r="C71" s="99" t="n">
+        <v>91</v>
+      </c>
+      <c r="D71" s="100" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="E71" s="101" t="n">
+        <v>483</v>
+      </c>
+      <c r="F71" s="102" t="n">
+        <v>454</v>
+      </c>
+      <c r="G71" s="103" t="n">
+        <v>29</v>
+      </c>
+      <c r="H71" s="102" t="n">
+        <v>84</v>
+      </c>
+      <c r="I71" s="103" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="12" t="n"/>
+      <c r="A72" s="97" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="98" t="n">
+        <v>44321.87667280093</v>
+      </c>
+      <c r="C72" s="99" t="n">
+        <v>98</v>
+      </c>
+      <c r="D72" s="100" t="inlineStr">
+        <is>
+          <t>95.5</t>
+        </is>
+      </c>
+      <c r="E72" s="101" t="n">
+        <v>502</v>
+      </c>
+      <c r="F72" s="102" t="n">
+        <v>488</v>
+      </c>
+      <c r="G72" s="103" t="n">
+        <v>14</v>
+      </c>
+      <c r="H72" s="102" t="n">
+        <v>87</v>
+      </c>
+      <c r="I72" s="103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="12" t="n"/>
+      <c r="A73" s="97" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="98" t="n">
+        <v>44321.88015725694</v>
+      </c>
+      <c r="C73" s="99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D73" s="100" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="E73" s="101" t="n">
+        <v>530</v>
+      </c>
+      <c r="F73" s="102" t="n">
+        <v>486</v>
+      </c>
+      <c r="G73" s="103" t="n">
+        <v>44</v>
+      </c>
+      <c r="H73" s="102" t="n">
+        <v>85</v>
+      </c>
+      <c r="I73" s="103" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="12" t="n"/>
+      <c r="A74" s="97" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="98" t="n">
+        <v>44322.36507841435</v>
+      </c>
+      <c r="C74" s="99" t="n">
+        <v>91</v>
+      </c>
+      <c r="D74" s="100" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="E74" s="101" t="n">
+        <v>494</v>
+      </c>
+      <c r="F74" s="102" t="n">
+        <v>453</v>
+      </c>
+      <c r="G74" s="103" t="n">
+        <v>41</v>
+      </c>
+      <c r="H74" s="102" t="n">
+        <v>79</v>
+      </c>
+      <c r="I74" s="103" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="12" t="n"/>
+      <c r="A75" s="97" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="98" t="n">
+        <v>44322.46600922454</v>
+      </c>
+      <c r="C75" s="99" t="n">
+        <v>99</v>
+      </c>
+      <c r="D75" s="100" t="inlineStr">
+        <is>
+          <t>95.74</t>
+        </is>
+      </c>
+      <c r="E75" s="101" t="n">
+        <v>511</v>
+      </c>
+      <c r="F75" s="102" t="n">
+        <v>494</v>
+      </c>
+      <c r="G75" s="103" t="n">
+        <v>17</v>
+      </c>
+      <c r="H75" s="102" t="n">
+        <v>87</v>
+      </c>
+      <c r="I75" s="103" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="76">
-      <c r="B76" s="12" t="n"/>
+      <c r="A76" s="97" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="98" t="n">
+        <v>44322.46773158565</v>
+      </c>
+      <c r="C76" s="99" t="n">
+        <v>93</v>
+      </c>
+      <c r="D76" s="100" t="inlineStr">
+        <is>
+          <t>95.89</t>
+        </is>
+      </c>
+      <c r="E76" s="101" t="n">
+        <v>478</v>
+      </c>
+      <c r="F76" s="102" t="n">
+        <v>467</v>
+      </c>
+      <c r="G76" s="103" t="n">
+        <v>11</v>
+      </c>
+      <c r="H76" s="102" t="n">
+        <v>82</v>
+      </c>
+      <c r="I76" s="103" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
-      <c r="B77" s="12" t="n"/>
+      <c r="A77" s="97" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="98" t="n">
+        <v>44322.60005685057</v>
+      </c>
+      <c r="C77" s="99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D77" s="100" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="E77" s="101" t="n">
+        <v>505</v>
+      </c>
+      <c r="F77" s="102" t="n">
+        <v>486</v>
+      </c>
+      <c r="G77" s="103" t="n">
+        <v>19</v>
+      </c>
+      <c r="H77" s="102" t="n">
+        <v>89</v>
+      </c>
+      <c r="I77" s="103" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="B78" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,6 +179,17 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <strike val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -191,12 +202,48 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="86">
+  <fills count="92">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -703,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -879,6 +926,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <right style="thick"/>
       <bottom style="thin"/>
     </border>
@@ -886,7 +944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -1195,6 +1253,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="85" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="86" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="87" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="88" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="87" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="89" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="90" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="91" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1542,8 +1621,8 @@
   </sheetPr>
   <dimension ref="A1:I4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:I71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3936,7 +4015,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="98" t="n">
-        <v>44322.60005685057</v>
+        <v>44322.60005685185</v>
       </c>
       <c r="C77" s="99" t="n">
         <v>97</v>
@@ -3963,13 +4042,97 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="12" t="n"/>
+      <c r="A78" s="104" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="105" t="n">
+        <v>44323.6135272338</v>
+      </c>
+      <c r="C78" s="106" t="n">
+        <v>103</v>
+      </c>
+      <c r="D78" s="107" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="E78" s="108" t="n">
+        <v>529</v>
+      </c>
+      <c r="F78" s="109" t="n">
+        <v>515</v>
+      </c>
+      <c r="G78" s="110" t="n">
+        <v>14</v>
+      </c>
+      <c r="H78" s="109" t="n">
+        <v>94</v>
+      </c>
+      <c r="I78" s="110" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
-      <c r="B79" s="12" t="n"/>
+      <c r="A79" s="104" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="105" t="n">
+        <v>44323.61592993056</v>
+      </c>
+      <c r="C79" s="106" t="n">
+        <v>96</v>
+      </c>
+      <c r="D79" s="107" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="E79" s="108" t="n">
+        <v>488</v>
+      </c>
+      <c r="F79" s="109" t="n">
+        <v>481</v>
+      </c>
+      <c r="G79" s="110" t="n">
+        <v>7</v>
+      </c>
+      <c r="H79" s="109" t="n">
+        <v>90</v>
+      </c>
+      <c r="I79" s="110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
-      <c r="B80" s="12" t="n"/>
+      <c r="A80" s="104" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="105" t="n">
+        <v>44323.63823035429</v>
+      </c>
+      <c r="C80" s="106" t="n">
+        <v>95</v>
+      </c>
+      <c r="D80" s="107" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="E80" s="108" t="n">
+        <v>501</v>
+      </c>
+      <c r="F80" s="109" t="n">
+        <v>476</v>
+      </c>
+      <c r="G80" s="110" t="n">
+        <v>25</v>
+      </c>
+      <c r="H80" s="109" t="n">
+        <v>88</v>
+      </c>
+      <c r="I80" s="110" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="B81" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4108,7 +4108,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="105" t="n">
-        <v>44323.63823035429</v>
+        <v>44323.6382303588</v>
       </c>
       <c r="C80" s="106" t="n">
         <v>95</v>
@@ -4135,7 +4135,35 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="12" t="n"/>
+      <c r="A81" s="104" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="105" t="n">
+        <v>44323.84152591218</v>
+      </c>
+      <c r="C81" s="106" t="n">
+        <v>95</v>
+      </c>
+      <c r="D81" s="107" t="inlineStr">
+        <is>
+          <t>95.58</t>
+        </is>
+      </c>
+      <c r="E81" s="108" t="n">
+        <v>494</v>
+      </c>
+      <c r="F81" s="109" t="n">
+        <v>476</v>
+      </c>
+      <c r="G81" s="110" t="n">
+        <v>18</v>
+      </c>
+      <c r="H81" s="109" t="n">
+        <v>92</v>
+      </c>
+      <c r="I81" s="110" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="B82" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="36">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -190,6 +190,28 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <strike val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -202,12 +224,84 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="92">
+  <fills count="104">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -750,7 +844,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -937,6 +1031,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <right style="thick"/>
       <bottom style="thin"/>
     </border>
@@ -944,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -1274,6 +1390,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="91" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="92" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="93" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="94" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="93" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="95" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="96" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="97" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="98" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="99" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="100" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="99" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="101" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="102" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="103" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1621,8 +1779,8 @@
   </sheetPr>
   <dimension ref="A1:I4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4139,7 +4297,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="105" t="n">
-        <v>44323.84152591218</v>
+        <v>44323.84152591435</v>
       </c>
       <c r="C81" s="106" t="n">
         <v>95</v>
@@ -4166,13 +4324,97 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="12" t="n"/>
+      <c r="A82" s="104" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="105" t="n">
+        <v>44324.4825941088</v>
+      </c>
+      <c r="C82" s="106" t="n">
+        <v>99</v>
+      </c>
+      <c r="D82" s="107" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="E82" s="108" t="n">
+        <v>541</v>
+      </c>
+      <c r="F82" s="109" t="n">
+        <v>496</v>
+      </c>
+      <c r="G82" s="110" t="n">
+        <v>45</v>
+      </c>
+      <c r="H82" s="109" t="n">
+        <v>97</v>
+      </c>
+      <c r="I82" s="110" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="83">
-      <c r="B83" s="12" t="n"/>
+      <c r="A83" s="111" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="112" t="n">
+        <v>44324.4857503588</v>
+      </c>
+      <c r="C83" s="113" t="n">
+        <v>90</v>
+      </c>
+      <c r="D83" s="114" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="E83" s="115" t="n">
+        <v>501</v>
+      </c>
+      <c r="F83" s="116" t="n">
+        <v>451</v>
+      </c>
+      <c r="G83" s="117" t="n">
+        <v>50</v>
+      </c>
+      <c r="H83" s="116" t="n">
+        <v>83</v>
+      </c>
+      <c r="I83" s="117" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="84">
-      <c r="B84" s="12" t="n"/>
+      <c r="A84" s="118" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="119" t="n">
+        <v>44324.4878673319</v>
+      </c>
+      <c r="C84" s="120" t="n">
+        <v>93</v>
+      </c>
+      <c r="D84" s="121" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="E84" s="122" t="n">
+        <v>509</v>
+      </c>
+      <c r="F84" s="123" t="n">
+        <v>467</v>
+      </c>
+      <c r="G84" s="124" t="n">
+        <v>42</v>
+      </c>
+      <c r="H84" s="123" t="n">
+        <v>82</v>
+      </c>
+      <c r="I84" s="124" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="85">
       <c r="B85" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -4390,7 +4390,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="119" t="n">
-        <v>44324.4878673319</v>
+        <v>44324.48786732639</v>
       </c>
       <c r="C84" s="120" t="n">
         <v>93</v>
@@ -4417,7 +4417,35 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="12" t="n"/>
+      <c r="A85" s="118" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="119" t="n">
+        <v>44324.81185806795</v>
+      </c>
+      <c r="C85" s="120" t="n">
+        <v>93</v>
+      </c>
+      <c r="D85" s="121" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="E85" s="122" t="n">
+        <v>498</v>
+      </c>
+      <c r="F85" s="123" t="n">
+        <v>463</v>
+      </c>
+      <c r="G85" s="124" t="n">
+        <v>35</v>
+      </c>
+      <c r="H85" s="123" t="n">
+        <v>85</v>
+      </c>
+      <c r="I85" s="124" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="86">
       <c r="B86" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4421,7 +4421,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="119" t="n">
-        <v>44324.81185806795</v>
+        <v>44324.81185806713</v>
       </c>
       <c r="C85" s="120" t="n">
         <v>93</v>
@@ -4448,13 +4448,97 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" s="12" t="n"/>
+      <c r="A86" s="118" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="119" t="n">
+        <v>44326.44878697917</v>
+      </c>
+      <c r="C86" s="120" t="n">
+        <v>98</v>
+      </c>
+      <c r="D86" s="121" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="E86" s="122" t="n">
+        <v>500</v>
+      </c>
+      <c r="F86" s="123" t="n">
+        <v>491</v>
+      </c>
+      <c r="G86" s="124" t="n">
+        <v>9</v>
+      </c>
+      <c r="H86" s="123" t="n">
+        <v>89</v>
+      </c>
+      <c r="I86" s="124" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
-      <c r="B87" s="12" t="n"/>
+      <c r="A87" s="118" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="119" t="n">
+        <v>44326.44995305555</v>
+      </c>
+      <c r="C87" s="120" t="n">
+        <v>100</v>
+      </c>
+      <c r="D87" s="121" t="inlineStr">
+        <is>
+          <t>96.7</t>
+        </is>
+      </c>
+      <c r="E87" s="122" t="n">
+        <v>511</v>
+      </c>
+      <c r="F87" s="123" t="n">
+        <v>498</v>
+      </c>
+      <c r="G87" s="124" t="n">
+        <v>13</v>
+      </c>
+      <c r="H87" s="123" t="n">
+        <v>94</v>
+      </c>
+      <c r="I87" s="124" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
-      <c r="B88" s="12" t="n"/>
+      <c r="A88" s="118" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="119" t="n">
+        <v>44326.45107514956</v>
+      </c>
+      <c r="C88" s="120" t="n">
+        <v>103</v>
+      </c>
+      <c r="D88" s="121" t="inlineStr">
+        <is>
+          <t>96.28</t>
+        </is>
+      </c>
+      <c r="E88" s="122" t="n">
+        <v>530</v>
+      </c>
+      <c r="F88" s="123" t="n">
+        <v>517</v>
+      </c>
+      <c r="G88" s="124" t="n">
+        <v>13</v>
+      </c>
+      <c r="H88" s="123" t="n">
+        <v>93</v>
+      </c>
+      <c r="I88" s="124" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="B89" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -4514,7 +4514,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="119" t="n">
-        <v>44326.45107514956</v>
+        <v>44326.45107515046</v>
       </c>
       <c r="C88" s="120" t="n">
         <v>103</v>
@@ -4541,10 +4541,66 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" s="12" t="n"/>
+      <c r="A89" s="118" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="119" t="n">
+        <v>44326.65163315972</v>
+      </c>
+      <c r="C89" s="120" t="n">
+        <v>102</v>
+      </c>
+      <c r="D89" s="121" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="E89" s="122" t="n">
+        <v>531</v>
+      </c>
+      <c r="F89" s="123" t="n">
+        <v>510</v>
+      </c>
+      <c r="G89" s="124" t="n">
+        <v>21</v>
+      </c>
+      <c r="H89" s="123" t="n">
+        <v>93</v>
+      </c>
+      <c r="I89" s="124" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
-      <c r="B90" s="12" t="n"/>
+      <c r="A90" s="118" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="119" t="n">
+        <v>44326.72685244515</v>
+      </c>
+      <c r="C90" s="120" t="n">
+        <v>100</v>
+      </c>
+      <c r="D90" s="121" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="E90" s="122" t="n">
+        <v>522</v>
+      </c>
+      <c r="F90" s="123" t="n">
+        <v>499</v>
+      </c>
+      <c r="G90" s="124" t="n">
+        <v>23</v>
+      </c>
+      <c r="H90" s="123" t="n">
+        <v>93</v>
+      </c>
+      <c r="I90" s="124" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
       <c r="B91" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -212,6 +212,17 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <strike val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -224,12 +235,48 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="104">
+  <fills count="110">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -844,7 +891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1053,6 +1100,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <right style="thick"/>
       <bottom style="thin"/>
     </border>
@@ -1060,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -1434,6 +1492,27 @@
     <xf numFmtId="0" fontId="34" fillId="103" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="104" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="105" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="106" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="105" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="107" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="108" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="109" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1779,8 +1858,9 @@
   </sheetPr>
   <dimension ref="A1:I4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:L86"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4421,7 +4501,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="119" t="n">
-        <v>44324.81185806795</v>
+        <v>44324.81185806713</v>
       </c>
       <c r="C85" s="120" t="n">
         <v>93</v>
@@ -4448,10 +4528,66 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" s="12" t="n"/>
+      <c r="A86" s="118" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="119" t="n">
+        <v>44327.36684434028</v>
+      </c>
+      <c r="C86" s="120" t="n">
+        <v>92</v>
+      </c>
+      <c r="D86" s="121" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="E86" s="122" t="n">
+        <v>510</v>
+      </c>
+      <c r="F86" s="123" t="n">
+        <v>462</v>
+      </c>
+      <c r="G86" s="124" t="n">
+        <v>48</v>
+      </c>
+      <c r="H86" s="123" t="n">
+        <v>85</v>
+      </c>
+      <c r="I86" s="124" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
-      <c r="B87" s="12" t="n"/>
+      <c r="A87" s="125" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="126" t="n">
+        <v>44327.75552492939</v>
+      </c>
+      <c r="C87" s="127" t="n">
+        <v>92</v>
+      </c>
+      <c r="D87" s="128" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="E87" s="129" t="n">
+        <v>499</v>
+      </c>
+      <c r="F87" s="130" t="n">
+        <v>459</v>
+      </c>
+      <c r="G87" s="131" t="n">
+        <v>40</v>
+      </c>
+      <c r="H87" s="130" t="n">
+        <v>84</v>
+      </c>
+      <c r="I87" s="131" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="B88" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -4563,7 +4563,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="126" t="n">
-        <v>44327.75552492939</v>
+        <v>44327.75552493056</v>
       </c>
       <c r="C87" s="127" t="n">
         <v>92</v>
@@ -4590,22 +4590,190 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="12" t="n"/>
+      <c r="A88" s="125" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="126" t="n">
+        <v>44328.43016752315</v>
+      </c>
+      <c r="C88" s="127" t="n">
+        <v>95</v>
+      </c>
+      <c r="D88" s="128" t="inlineStr">
+        <is>
+          <t>93.9</t>
+        </is>
+      </c>
+      <c r="E88" s="129" t="n">
+        <v>503</v>
+      </c>
+      <c r="F88" s="130" t="n">
+        <v>477</v>
+      </c>
+      <c r="G88" s="131" t="n">
+        <v>26</v>
+      </c>
+      <c r="H88" s="130" t="n">
+        <v>85</v>
+      </c>
+      <c r="I88" s="131" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
-      <c r="B89" s="12" t="n"/>
+      <c r="A89" s="125" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="126" t="n">
+        <v>44328.4680371875</v>
+      </c>
+      <c r="C89" s="127" t="n">
+        <v>96</v>
+      </c>
+      <c r="D89" s="128" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="E89" s="129" t="n">
+        <v>506</v>
+      </c>
+      <c r="F89" s="130" t="n">
+        <v>481</v>
+      </c>
+      <c r="G89" s="131" t="n">
+        <v>25</v>
+      </c>
+      <c r="H89" s="130" t="n">
+        <v>87</v>
+      </c>
+      <c r="I89" s="131" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
-      <c r="B90" s="12" t="n"/>
+      <c r="A90" s="125" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="126" t="n">
+        <v>44328.46885034722</v>
+      </c>
+      <c r="C90" s="127" t="n">
+        <v>94</v>
+      </c>
+      <c r="D90" s="128" t="inlineStr">
+        <is>
+          <t>94.2</t>
+        </is>
+      </c>
+      <c r="E90" s="129" t="n">
+        <v>496</v>
+      </c>
+      <c r="F90" s="130" t="n">
+        <v>471</v>
+      </c>
+      <c r="G90" s="131" t="n">
+        <v>25</v>
+      </c>
+      <c r="H90" s="130" t="n">
+        <v>87</v>
+      </c>
+      <c r="I90" s="131" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
-      <c r="B91" s="12" t="n"/>
+      <c r="A91" s="125" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="126" t="n">
+        <v>44329.48083972222</v>
+      </c>
+      <c r="C91" s="127" t="n">
+        <v>102</v>
+      </c>
+      <c r="D91" s="128" t="inlineStr">
+        <is>
+          <t>96.77</t>
+        </is>
+      </c>
+      <c r="E91" s="129" t="n">
+        <v>522</v>
+      </c>
+      <c r="F91" s="130" t="n">
+        <v>510</v>
+      </c>
+      <c r="G91" s="131" t="n">
+        <v>12</v>
+      </c>
+      <c r="H91" s="130" t="n">
+        <v>94</v>
+      </c>
+      <c r="I91" s="131" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
-      <c r="B92" s="12" t="n"/>
+      <c r="A92" s="125" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="126" t="n">
+        <v>44329.48176284722</v>
+      </c>
+      <c r="C92" s="127" t="n">
+        <v>93</v>
+      </c>
+      <c r="D92" s="128" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="E92" s="129" t="n">
+        <v>497</v>
+      </c>
+      <c r="F92" s="130" t="n">
+        <v>467</v>
+      </c>
+      <c r="G92" s="131" t="n">
+        <v>30</v>
+      </c>
+      <c r="H92" s="130" t="n">
+        <v>88</v>
+      </c>
+      <c r="I92" s="131" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="93">
-      <c r="B93" s="12" t="n"/>
+      <c r="A93" s="125" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="126" t="n">
+        <v>44329.48254474071</v>
+      </c>
+      <c r="C93" s="127" t="n">
+        <v>100</v>
+      </c>
+      <c r="D93" s="128" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="E93" s="129" t="n">
+        <v>523</v>
+      </c>
+      <c r="F93" s="130" t="n">
+        <v>499</v>
+      </c>
+      <c r="G93" s="131" t="n">
+        <v>24</v>
+      </c>
+      <c r="H93" s="130" t="n">
+        <v>90</v>
+      </c>
+      <c r="I93" s="131" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="94">
       <c r="B94" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4749,7 +4749,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="126" t="n">
-        <v>44329.48254474071</v>
+        <v>44329.48254474537</v>
       </c>
       <c r="C93" s="127" t="n">
         <v>100</v>
@@ -4776,13 +4776,97 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" s="12" t="n"/>
+      <c r="A94" s="125" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="126" t="n">
+        <v>44330.63591601852</v>
+      </c>
+      <c r="C94" s="127" t="n">
+        <v>101</v>
+      </c>
+      <c r="D94" s="128" t="inlineStr">
+        <is>
+          <t>94.4</t>
+        </is>
+      </c>
+      <c r="E94" s="129" t="n">
+        <v>533</v>
+      </c>
+      <c r="F94" s="130" t="n">
+        <v>506</v>
+      </c>
+      <c r="G94" s="131" t="n">
+        <v>27</v>
+      </c>
+      <c r="H94" s="130" t="n">
+        <v>93</v>
+      </c>
+      <c r="I94" s="131" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="95">
-      <c r="B95" s="12" t="n"/>
+      <c r="A95" s="125" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="126" t="n">
+        <v>44330.63774511574</v>
+      </c>
+      <c r="C95" s="127" t="n">
+        <v>98</v>
+      </c>
+      <c r="D95" s="128" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="E95" s="129" t="n">
+        <v>509</v>
+      </c>
+      <c r="F95" s="130" t="n">
+        <v>488</v>
+      </c>
+      <c r="G95" s="131" t="n">
+        <v>21</v>
+      </c>
+      <c r="H95" s="130" t="n">
+        <v>92</v>
+      </c>
+      <c r="I95" s="131" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
-      <c r="B96" s="12" t="n"/>
+      <c r="A96" s="125" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="126" t="n">
+        <v>44330.64010282559</v>
+      </c>
+      <c r="C96" s="127" t="n">
+        <v>96</v>
+      </c>
+      <c r="D96" s="128" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="E96" s="129" t="n">
+        <v>495</v>
+      </c>
+      <c r="F96" s="130" t="n">
+        <v>478</v>
+      </c>
+      <c r="G96" s="131" t="n">
+        <v>17</v>
+      </c>
+      <c r="H96" s="130" t="n">
+        <v>93</v>
+      </c>
+      <c r="I96" s="131" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="97">
       <c r="B97" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4842,7 +4842,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="126" t="n">
-        <v>44330.64010282559</v>
+        <v>44330.64010282407</v>
       </c>
       <c r="C96" s="127" t="n">
         <v>96</v>
@@ -4869,10 +4869,66 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="12" t="n"/>
+      <c r="A97" s="125" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="126" t="n">
+        <v>44331.44877887731</v>
+      </c>
+      <c r="C97" s="127" t="n">
+        <v>96</v>
+      </c>
+      <c r="D97" s="128" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="E97" s="129" t="n">
+        <v>526</v>
+      </c>
+      <c r="F97" s="130" t="n">
+        <v>480</v>
+      </c>
+      <c r="G97" s="131" t="n">
+        <v>46</v>
+      </c>
+      <c r="H97" s="130" t="n">
+        <v>86</v>
+      </c>
+      <c r="I97" s="131" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="98">
-      <c r="B98" s="12" t="n"/>
+      <c r="A98" s="125" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="126" t="n">
+        <v>44331.44990255492</v>
+      </c>
+      <c r="C98" s="127" t="n">
+        <v>97</v>
+      </c>
+      <c r="D98" s="128" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="E98" s="129" t="n">
+        <v>508</v>
+      </c>
+      <c r="F98" s="130" t="n">
+        <v>485</v>
+      </c>
+      <c r="G98" s="131" t="n">
+        <v>23</v>
+      </c>
+      <c r="H98" s="130" t="n">
+        <v>89</v>
+      </c>
+      <c r="I98" s="131" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="B99" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="42">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,6 +223,28 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <strike val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -235,12 +257,84 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="110">
+  <fills count="122">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -891,7 +985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1111,6 +1205,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <right style="thick"/>
       <bottom style="thin"/>
     </border>
@@ -1118,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -1513,6 +1629,48 @@
     <xf numFmtId="0" fontId="36" fillId="109" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="110" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="111" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="112" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="111" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="113" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="114" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="115" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="116" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="117" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="118" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="117" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="119" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="120" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="121" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1860,7 +2018,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
+      <selection pane="bottomLeft" activeCell="N99" sqref="N99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4904,7 +5062,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="126" t="n">
-        <v>44331.44990255492</v>
+        <v>44331.44990255787</v>
       </c>
       <c r="C98" s="127" t="n">
         <v>97</v>
@@ -4931,7 +5089,35 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" s="12" t="n"/>
+      <c r="A99" s="139" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="140" t="n">
+        <v>44331.86753990534</v>
+      </c>
+      <c r="C99" s="141" t="n">
+        <v>100</v>
+      </c>
+      <c r="D99" s="142" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="E99" s="143" t="n">
+        <v>505</v>
+      </c>
+      <c r="F99" s="144" t="n">
+        <v>498</v>
+      </c>
+      <c r="G99" s="145" t="n">
+        <v>7</v>
+      </c>
+      <c r="H99" s="144" t="n">
+        <v>89</v>
+      </c>
+      <c r="I99" s="145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="B100" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\WPMTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2608199-A926-431B-B799-A7114F5EF558}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064EFEC1-41DD-4BA7-A676-747C8CF60CC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
   <si>
     <t>Nr.</t>
   </si>
@@ -333,6 +333,12 @@
   <si>
     <t>96.65</t>
   </si>
+  <si>
+    <t>94.1</t>
+  </si>
+  <si>
+    <t>92.4</t>
+  </si>
 </sst>
 </file>
 
@@ -341,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,8 +572,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="116">
+  <fills count="122">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1258,8 +1275,44 @@
         <bgColor rgb="FFDD5151"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1500,11 +1553,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1920,6 +1984,27 @@
     <xf numFmtId="0" fontId="38" fillId="115" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="116" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="117" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="118" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="117" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="119" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="120" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="121" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2204,7 +2289,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
+      <selection pane="bottomLeft" activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5179,21 +5264,91 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="132"/>
-      <c r="B103" s="133"/>
-      <c r="C103" s="134"/>
-      <c r="D103" s="135"/>
-      <c r="E103" s="136"/>
-      <c r="F103" s="137"/>
-      <c r="G103" s="138"/>
-      <c r="H103" s="137"/>
-      <c r="I103" s="138"/>
+      <c r="A103" s="139">
+        <v>102</v>
+      </c>
+      <c r="B103" s="140">
+        <v>44333.511556273152</v>
+      </c>
+      <c r="C103" s="141">
+        <v>100</v>
+      </c>
+      <c r="D103" s="142" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" s="143">
+        <v>529</v>
+      </c>
+      <c r="F103" s="144">
+        <v>500</v>
+      </c>
+      <c r="G103" s="145">
+        <v>29</v>
+      </c>
+      <c r="H103" s="144">
+        <v>90</v>
+      </c>
+      <c r="I103" s="145">
+        <v>5</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="12"/>
+      <c r="A104" s="139">
+        <v>103</v>
+      </c>
+      <c r="B104" s="140">
+        <v>44333.511556273152</v>
+      </c>
+      <c r="C104" s="141">
+        <v>99</v>
+      </c>
+      <c r="D104" s="142" t="s">
+        <v>104</v>
+      </c>
+      <c r="E104" s="143">
+        <v>514</v>
+      </c>
+      <c r="F104" s="144">
+        <v>494</v>
+      </c>
+      <c r="G104" s="145">
+        <v>20</v>
+      </c>
+      <c r="H104" s="144">
+        <v>87</v>
+      </c>
+      <c r="I104" s="145">
+        <v>4</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="12"/>
+      <c r="A105" s="139">
+        <v>104</v>
+      </c>
+      <c r="B105" s="140">
+        <v>44333.511556270707</v>
+      </c>
+      <c r="C105" s="141">
+        <v>95</v>
+      </c>
+      <c r="D105" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105" s="143">
+        <v>506</v>
+      </c>
+      <c r="F105" s="144">
+        <v>474</v>
+      </c>
+      <c r="G105" s="145">
+        <v>32</v>
+      </c>
+      <c r="H105" s="144">
+        <v>87</v>
+      </c>
+      <c r="I105" s="145">
+        <v>4</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B106" s="12"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -5733,7 +5733,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="161" t="n">
-        <v>44335.44988772425</v>
+        <v>44335.44988771991</v>
       </c>
       <c r="C112" s="162" t="n">
         <v>103</v>
@@ -5760,16 +5760,128 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" s="12" t="n"/>
+      <c r="A113" s="160" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="161" t="n">
+        <v>44336.51063456018</v>
+      </c>
+      <c r="C113" s="162" t="n">
+        <v>96</v>
+      </c>
+      <c r="D113" s="163" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="E113" s="164" t="n">
+        <v>508</v>
+      </c>
+      <c r="F113" s="165" t="n">
+        <v>478</v>
+      </c>
+      <c r="G113" s="166" t="n">
+        <v>30</v>
+      </c>
+      <c r="H113" s="165" t="n">
+        <v>89</v>
+      </c>
+      <c r="I113" s="166" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="114">
-      <c r="B114" s="12" t="n"/>
+      <c r="A114" s="160" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="161" t="n">
+        <v>44336.5121924537</v>
+      </c>
+      <c r="C114" s="162" t="n">
+        <v>102</v>
+      </c>
+      <c r="D114" s="163" t="inlineStr">
+        <is>
+          <t>95.32</t>
+        </is>
+      </c>
+      <c r="E114" s="164" t="n">
+        <v>530</v>
+      </c>
+      <c r="F114" s="165" t="n">
+        <v>509</v>
+      </c>
+      <c r="G114" s="166" t="n">
+        <v>21</v>
+      </c>
+      <c r="H114" s="165" t="n">
+        <v>96</v>
+      </c>
+      <c r="I114" s="166" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
-      <c r="B115" s="12" t="n"/>
+      <c r="A115" s="160" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="161" t="n">
+        <v>44336.51312983796</v>
+      </c>
+      <c r="C115" s="162" t="n">
+        <v>106</v>
+      </c>
+      <c r="D115" s="163" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="E115" s="164" t="n">
+        <v>548</v>
+      </c>
+      <c r="F115" s="165" t="n">
+        <v>528</v>
+      </c>
+      <c r="G115" s="166" t="n">
+        <v>20</v>
+      </c>
+      <c r="H115" s="165" t="n">
+        <v>101</v>
+      </c>
+      <c r="I115" s="166" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="116">
-      <c r="B116" s="12" t="n"/>
+      <c r="A116" s="160" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="161" t="n">
+        <v>44336.52231644037</v>
+      </c>
+      <c r="C116" s="162" t="n">
+        <v>103</v>
+      </c>
+      <c r="D116" s="163" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="E116" s="164" t="n">
+        <v>522</v>
+      </c>
+      <c r="F116" s="165" t="n">
+        <v>514</v>
+      </c>
+      <c r="G116" s="166" t="n">
+        <v>8</v>
+      </c>
+      <c r="H116" s="165" t="n">
+        <v>92</v>
+      </c>
+      <c r="I116" s="166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="B117" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -6421,7 +6421,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="189" t="n">
-        <v>44341.52466621857</v>
+        <v>44341.52466621528</v>
       </c>
       <c r="C124" s="190" t="n">
         <v>105</v>
@@ -6448,13 +6448,97 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" s="12" t="n"/>
+      <c r="A125" s="188" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="189" t="n">
+        <v>44344.41332222222</v>
+      </c>
+      <c r="C125" s="190" t="n">
+        <v>97</v>
+      </c>
+      <c r="D125" s="191" t="inlineStr">
+        <is>
+          <t>89.5</t>
+        </is>
+      </c>
+      <c r="E125" s="192" t="n">
+        <v>542</v>
+      </c>
+      <c r="F125" s="193" t="n">
+        <v>486</v>
+      </c>
+      <c r="G125" s="194" t="n">
+        <v>56</v>
+      </c>
+      <c r="H125" s="193" t="n">
+        <v>86</v>
+      </c>
+      <c r="I125" s="194" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="126">
-      <c r="B126" s="12" t="n"/>
+      <c r="A126" s="188" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="189" t="n">
+        <v>44344.41448594908</v>
+      </c>
+      <c r="C126" s="190" t="n">
+        <v>98</v>
+      </c>
+      <c r="D126" s="191" t="inlineStr">
+        <is>
+          <t>95.89</t>
+        </is>
+      </c>
+      <c r="E126" s="192" t="n">
+        <v>507</v>
+      </c>
+      <c r="F126" s="193" t="n">
+        <v>490</v>
+      </c>
+      <c r="G126" s="194" t="n">
+        <v>17</v>
+      </c>
+      <c r="H126" s="193" t="n">
+        <v>86</v>
+      </c>
+      <c r="I126" s="194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
-      <c r="B127" s="12" t="n"/>
+      <c r="A127" s="188" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="189" t="n">
+        <v>44344.41634977451</v>
+      </c>
+      <c r="C127" s="190" t="n">
+        <v>99</v>
+      </c>
+      <c r="D127" s="191" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="E127" s="192" t="n">
+        <v>514</v>
+      </c>
+      <c r="F127" s="193" t="n">
+        <v>493</v>
+      </c>
+      <c r="G127" s="194" t="n">
+        <v>21</v>
+      </c>
+      <c r="H127" s="193" t="n">
+        <v>90</v>
+      </c>
+      <c r="I127" s="194" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="128">
       <c r="B128" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6514,7 +6514,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="189" t="n">
-        <v>44344.41634977451</v>
+        <v>44344.41634978009</v>
       </c>
       <c r="C127" s="190" t="n">
         <v>99</v>
@@ -6541,13 +6541,97 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" s="12" t="n"/>
+      <c r="A128" s="188" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="189" t="n">
+        <v>44346.52140685185</v>
+      </c>
+      <c r="C128" s="190" t="n">
+        <v>98</v>
+      </c>
+      <c r="D128" s="191" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="E128" s="192" t="n">
+        <v>521</v>
+      </c>
+      <c r="F128" s="193" t="n">
+        <v>492</v>
+      </c>
+      <c r="G128" s="194" t="n">
+        <v>29</v>
+      </c>
+      <c r="H128" s="193" t="n">
+        <v>90</v>
+      </c>
+      <c r="I128" s="194" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="129">
-      <c r="B129" s="12" t="n"/>
+      <c r="A129" s="188" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="189" t="n">
+        <v>44346.52256232639</v>
+      </c>
+      <c r="C129" s="190" t="n">
+        <v>95</v>
+      </c>
+      <c r="D129" s="191" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="E129" s="192" t="n">
+        <v>516</v>
+      </c>
+      <c r="F129" s="193" t="n">
+        <v>476</v>
+      </c>
+      <c r="G129" s="194" t="n">
+        <v>40</v>
+      </c>
+      <c r="H129" s="193" t="n">
+        <v>87</v>
+      </c>
+      <c r="I129" s="194" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="130">
-      <c r="B130" s="12" t="n"/>
+      <c r="A130" s="188" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="189" t="n">
+        <v>44346.52361753704</v>
+      </c>
+      <c r="C130" s="190" t="n">
+        <v>106</v>
+      </c>
+      <c r="D130" s="191" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="E130" s="192" t="n">
+        <v>547</v>
+      </c>
+      <c r="F130" s="193" t="n">
+        <v>530</v>
+      </c>
+      <c r="G130" s="194" t="n">
+        <v>17</v>
+      </c>
+      <c r="H130" s="193" t="n">
+        <v>96</v>
+      </c>
+      <c r="I130" s="194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="131">
       <c r="B131" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6607,7 +6607,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="189" t="n">
-        <v>44346.52361753704</v>
+        <v>44346.52361753472</v>
       </c>
       <c r="C130" s="190" t="n">
         <v>106</v>
@@ -6634,13 +6634,97 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" s="12" t="n"/>
+      <c r="A131" s="188" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="189" t="n">
+        <v>44347.47510987268</v>
+      </c>
+      <c r="C131" s="190" t="n">
+        <v>105</v>
+      </c>
+      <c r="D131" s="191" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="E131" s="192" t="n">
+        <v>527</v>
+      </c>
+      <c r="F131" s="193" t="n">
+        <v>527</v>
+      </c>
+      <c r="G131" s="194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" s="193" t="n">
+        <v>97</v>
+      </c>
+      <c r="I131" s="194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
-      <c r="B132" s="12" t="n"/>
+      <c r="A132" s="188" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="189" t="n">
+        <v>44347.4823587037</v>
+      </c>
+      <c r="C132" s="190" t="n">
+        <v>104</v>
+      </c>
+      <c r="D132" s="191" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="E132" s="192" t="n">
+        <v>524</v>
+      </c>
+      <c r="F132" s="193" t="n">
+        <v>519</v>
+      </c>
+      <c r="G132" s="194" t="n">
+        <v>5</v>
+      </c>
+      <c r="H132" s="193" t="n">
+        <v>94</v>
+      </c>
+      <c r="I132" s="194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
-      <c r="B133" s="12" t="n"/>
+      <c r="A133" s="188" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="189" t="n">
+        <v>44347.48925112335</v>
+      </c>
+      <c r="C133" s="190" t="n">
+        <v>99</v>
+      </c>
+      <c r="D133" s="191" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="E133" s="192" t="n">
+        <v>508</v>
+      </c>
+      <c r="F133" s="193" t="n">
+        <v>493</v>
+      </c>
+      <c r="G133" s="194" t="n">
+        <v>15</v>
+      </c>
+      <c r="H133" s="193" t="n">
+        <v>89</v>
+      </c>
+      <c r="I133" s="194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="134">
       <c r="B134" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6700,7 +6700,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="189" t="n">
-        <v>44347.48925112335</v>
+        <v>44347.48925112269</v>
       </c>
       <c r="C133" s="190" t="n">
         <v>99</v>
@@ -6727,22 +6727,190 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" s="12" t="n"/>
+      <c r="A134" s="188" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="189" t="n">
+        <v>44348.48642696759</v>
+      </c>
+      <c r="C134" s="190" t="n">
+        <v>96</v>
+      </c>
+      <c r="D134" s="191" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="E134" s="192" t="n">
+        <v>498</v>
+      </c>
+      <c r="F134" s="193" t="n">
+        <v>481</v>
+      </c>
+      <c r="G134" s="194" t="n">
+        <v>17</v>
+      </c>
+      <c r="H134" s="193" t="n">
+        <v>89</v>
+      </c>
+      <c r="I134" s="194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="135">
-      <c r="B135" s="12" t="n"/>
+      <c r="A135" s="188" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="189" t="n">
+        <v>44348.57387067129</v>
+      </c>
+      <c r="C135" s="190" t="n">
+        <v>99</v>
+      </c>
+      <c r="D135" s="191" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="E135" s="192" t="n">
+        <v>512</v>
+      </c>
+      <c r="F135" s="193" t="n">
+        <v>497</v>
+      </c>
+      <c r="G135" s="194" t="n">
+        <v>15</v>
+      </c>
+      <c r="H135" s="193" t="n">
+        <v>95</v>
+      </c>
+      <c r="I135" s="194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="136">
-      <c r="B136" s="12" t="n"/>
+      <c r="A136" s="188" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="189" t="n">
+        <v>44348.57462857639</v>
+      </c>
+      <c r="C136" s="190" t="n">
+        <v>99</v>
+      </c>
+      <c r="D136" s="191" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="E136" s="192" t="n">
+        <v>513</v>
+      </c>
+      <c r="F136" s="193" t="n">
+        <v>494</v>
+      </c>
+      <c r="G136" s="194" t="n">
+        <v>19</v>
+      </c>
+      <c r="H136" s="193" t="n">
+        <v>94</v>
+      </c>
+      <c r="I136" s="194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="137">
-      <c r="B137" s="12" t="n"/>
+      <c r="A137" s="188" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="189" t="n">
+        <v>44349.49548113426</v>
+      </c>
+      <c r="C137" s="190" t="n">
+        <v>100</v>
+      </c>
+      <c r="D137" s="191" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="E137" s="192" t="n">
+        <v>533</v>
+      </c>
+      <c r="F137" s="193" t="n">
+        <v>500</v>
+      </c>
+      <c r="G137" s="194" t="n">
+        <v>33</v>
+      </c>
+      <c r="H137" s="193" t="n">
+        <v>91</v>
+      </c>
+      <c r="I137" s="194" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
-      <c r="B138" s="12" t="n"/>
+      <c r="A138" s="188" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="189" t="n">
+        <v>44349.49623936343</v>
+      </c>
+      <c r="C138" s="190" t="n">
+        <v>96</v>
+      </c>
+      <c r="D138" s="191" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E138" s="192" t="n">
+        <v>524</v>
+      </c>
+      <c r="F138" s="193" t="n">
+        <v>482</v>
+      </c>
+      <c r="G138" s="194" t="n">
+        <v>42</v>
+      </c>
+      <c r="H138" s="193" t="n">
+        <v>90</v>
+      </c>
+      <c r="I138" s="194" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="139">
-      <c r="B139" s="12" t="n"/>
+      <c r="A139" s="188" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="189" t="n">
+        <v>44349.49751317109</v>
+      </c>
+      <c r="C139" s="190" t="n">
+        <v>101</v>
+      </c>
+      <c r="D139" s="191" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="E139" s="192" t="n">
+        <v>533</v>
+      </c>
+      <c r="F139" s="193" t="n">
+        <v>507</v>
+      </c>
+      <c r="G139" s="194" t="n">
+        <v>26</v>
+      </c>
+      <c r="H139" s="193" t="n">
+        <v>93</v>
+      </c>
+      <c r="I139" s="194" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="B140" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -6886,7 +6886,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="189" t="n">
-        <v>44349.49751317109</v>
+        <v>44349.49751317129</v>
       </c>
       <c r="C139" s="190" t="n">
         <v>101</v>
@@ -6913,10 +6913,66 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" s="12" t="n"/>
+      <c r="A140" s="188" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="189" t="n">
+        <v>44350.48552112268</v>
+      </c>
+      <c r="C140" s="190" t="n">
+        <v>101</v>
+      </c>
+      <c r="D140" s="191" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="E140" s="192" t="n">
+        <v>524</v>
+      </c>
+      <c r="F140" s="193" t="n">
+        <v>504</v>
+      </c>
+      <c r="G140" s="194" t="n">
+        <v>20</v>
+      </c>
+      <c r="H140" s="193" t="n">
+        <v>92</v>
+      </c>
+      <c r="I140" s="194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="141">
-      <c r="B141" s="12" t="n"/>
+      <c r="A141" s="188" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="189" t="n">
+        <v>44350.48656598118</v>
+      </c>
+      <c r="C141" s="190" t="n">
+        <v>96</v>
+      </c>
+      <c r="D141" s="191" t="inlineStr">
+        <is>
+          <t>90.4</t>
+        </is>
+      </c>
+      <c r="E141" s="192" t="n">
+        <v>524</v>
+      </c>
+      <c r="F141" s="193" t="n">
+        <v>480</v>
+      </c>
+      <c r="G141" s="194" t="n">
+        <v>44</v>
+      </c>
+      <c r="H141" s="193" t="n">
+        <v>91</v>
+      </c>
+      <c r="I141" s="194" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="142">
       <c r="B142" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6948,7 +6948,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="189" t="n">
-        <v>44350.48656598118</v>
+        <v>44350.4865659838</v>
       </c>
       <c r="C141" s="190" t="n">
         <v>96</v>
@@ -6975,13 +6975,97 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" s="12" t="n"/>
+      <c r="A142" s="188" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="189" t="n">
+        <v>44351.61957391204</v>
+      </c>
+      <c r="C142" s="190" t="n">
+        <v>106</v>
+      </c>
+      <c r="D142" s="191" t="inlineStr">
+        <is>
+          <t>95.5</t>
+        </is>
+      </c>
+      <c r="E142" s="192" t="n">
+        <v>551</v>
+      </c>
+      <c r="F142" s="193" t="n">
+        <v>531</v>
+      </c>
+      <c r="G142" s="194" t="n">
+        <v>20</v>
+      </c>
+      <c r="H142" s="193" t="n">
+        <v>99</v>
+      </c>
+      <c r="I142" s="194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="143">
-      <c r="B143" s="12" t="n"/>
+      <c r="A143" s="188" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="189" t="n">
+        <v>44351.62059200231</v>
+      </c>
+      <c r="C143" s="190" t="n">
+        <v>104</v>
+      </c>
+      <c r="D143" s="191" t="inlineStr">
+        <is>
+          <t>95.76</t>
+        </is>
+      </c>
+      <c r="E143" s="192" t="n">
+        <v>537</v>
+      </c>
+      <c r="F143" s="193" t="n">
+        <v>519</v>
+      </c>
+      <c r="G143" s="194" t="n">
+        <v>18</v>
+      </c>
+      <c r="H143" s="193" t="n">
+        <v>94</v>
+      </c>
+      <c r="I143" s="194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="144">
-      <c r="B144" s="12" t="n"/>
+      <c r="A144" s="188" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="189" t="n">
+        <v>44351.62163473845</v>
+      </c>
+      <c r="C144" s="190" t="n">
+        <v>100</v>
+      </c>
+      <c r="D144" s="191" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="E144" s="192" t="n">
+        <v>535</v>
+      </c>
+      <c r="F144" s="193" t="n">
+        <v>499</v>
+      </c>
+      <c r="G144" s="194" t="n">
+        <v>36</v>
+      </c>
+      <c r="H144" s="193" t="n">
+        <v>91</v>
+      </c>
+      <c r="I144" s="194" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="145">
       <c r="B145" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7041,7 +7041,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="189" t="n">
-        <v>44351.62163473845</v>
+        <v>44351.6216347338</v>
       </c>
       <c r="C144" s="190" t="n">
         <v>100</v>
@@ -7068,16 +7068,128 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" s="12" t="n"/>
+      <c r="A145" s="188" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="189" t="n">
+        <v>44352.46946723379</v>
+      </c>
+      <c r="C145" s="190" t="n">
+        <v>101</v>
+      </c>
+      <c r="D145" s="191" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="E145" s="192" t="n">
+        <v>543</v>
+      </c>
+      <c r="F145" s="193" t="n">
+        <v>507</v>
+      </c>
+      <c r="G145" s="194" t="n">
+        <v>36</v>
+      </c>
+      <c r="H145" s="193" t="n">
+        <v>94</v>
+      </c>
+      <c r="I145" s="194" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="146">
-      <c r="B146" s="12" t="n"/>
+      <c r="A146" s="188" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="189" t="n">
+        <v>44352.47045341435</v>
+      </c>
+      <c r="C146" s="190" t="n">
+        <v>105</v>
+      </c>
+      <c r="D146" s="191" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="E146" s="192" t="n">
+        <v>537</v>
+      </c>
+      <c r="F146" s="193" t="n">
+        <v>526</v>
+      </c>
+      <c r="G146" s="194" t="n">
+        <v>11</v>
+      </c>
+      <c r="H146" s="193" t="n">
+        <v>92</v>
+      </c>
+      <c r="I146" s="194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="147">
-      <c r="B147" s="12" t="n"/>
+      <c r="A147" s="188" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="189" t="n">
+        <v>44352.47172619213</v>
+      </c>
+      <c r="C147" s="190" t="n">
+        <v>99</v>
+      </c>
+      <c r="D147" s="191" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="E147" s="192" t="n">
+        <v>513</v>
+      </c>
+      <c r="F147" s="193" t="n">
+        <v>494</v>
+      </c>
+      <c r="G147" s="194" t="n">
+        <v>19</v>
+      </c>
+      <c r="H147" s="193" t="n">
+        <v>87</v>
+      </c>
+      <c r="I147" s="194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="148">
-      <c r="B148" s="12" t="n"/>
+      <c r="A148" s="188" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="189" t="n">
+        <v>44353.8659949569</v>
+      </c>
+      <c r="C148" s="190" t="n">
+        <v>95</v>
+      </c>
+      <c r="D148" s="191" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="E148" s="192" t="n">
+        <v>506</v>
+      </c>
+      <c r="F148" s="193" t="n">
+        <v>477</v>
+      </c>
+      <c r="G148" s="194" t="n">
+        <v>29</v>
+      </c>
+      <c r="H148" s="193" t="n">
+        <v>90</v>
+      </c>
+      <c r="I148" s="194" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="149">
       <c r="B149" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7165,7 +7165,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="189" t="n">
-        <v>44353.8659949569</v>
+        <v>44353.8659949537</v>
       </c>
       <c r="C148" s="190" t="n">
         <v>95</v>
@@ -7192,13 +7192,97 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" s="12" t="n"/>
+      <c r="A149" s="188" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="189" t="n">
+        <v>44354.45460549768</v>
+      </c>
+      <c r="C149" s="190" t="n">
+        <v>104</v>
+      </c>
+      <c r="D149" s="191" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="E149" s="192" t="n">
+        <v>538</v>
+      </c>
+      <c r="F149" s="193" t="n">
+        <v>521</v>
+      </c>
+      <c r="G149" s="194" t="n">
+        <v>17</v>
+      </c>
+      <c r="H149" s="193" t="n">
+        <v>97</v>
+      </c>
+      <c r="I149" s="194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="150">
-      <c r="B150" s="12" t="n"/>
+      <c r="A150" s="188" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="189" t="n">
+        <v>44354.45538993055</v>
+      </c>
+      <c r="C150" s="190" t="n">
+        <v>102</v>
+      </c>
+      <c r="D150" s="191" t="inlineStr">
+        <is>
+          <t>93.6</t>
+        </is>
+      </c>
+      <c r="E150" s="192" t="n">
+        <v>544</v>
+      </c>
+      <c r="F150" s="193" t="n">
+        <v>512</v>
+      </c>
+      <c r="G150" s="194" t="n">
+        <v>32</v>
+      </c>
+      <c r="H150" s="193" t="n">
+        <v>96</v>
+      </c>
+      <c r="I150" s="194" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="151">
-      <c r="B151" s="12" t="n"/>
+      <c r="A151" s="188" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="189" t="n">
+        <v>44354.4581800962</v>
+      </c>
+      <c r="C151" s="190" t="n">
+        <v>100</v>
+      </c>
+      <c r="D151" s="191" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="E151" s="192" t="n">
+        <v>532</v>
+      </c>
+      <c r="F151" s="193" t="n">
+        <v>500</v>
+      </c>
+      <c r="G151" s="194" t="n">
+        <v>32</v>
+      </c>
+      <c r="H151" s="193" t="n">
+        <v>88</v>
+      </c>
+      <c r="I151" s="194" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="152">
       <c r="B152" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7258,7 +7258,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="189" t="n">
-        <v>44354.4581800962</v>
+        <v>44354.4581800926</v>
       </c>
       <c r="C151" s="190" t="n">
         <v>100</v>
@@ -7285,13 +7285,97 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" s="12" t="n"/>
+      <c r="A152" s="188" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" s="189" t="n">
+        <v>44355.7078837037</v>
+      </c>
+      <c r="C152" s="190" t="n">
+        <v>96</v>
+      </c>
+      <c r="D152" s="191" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="E152" s="192" t="n">
+        <v>508</v>
+      </c>
+      <c r="F152" s="193" t="n">
+        <v>482</v>
+      </c>
+      <c r="G152" s="194" t="n">
+        <v>26</v>
+      </c>
+      <c r="H152" s="193" t="n">
+        <v>88</v>
+      </c>
+      <c r="I152" s="194" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="153">
-      <c r="B153" s="12" t="n"/>
+      <c r="A153" s="188" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" s="189" t="n">
+        <v>44356.50727540509</v>
+      </c>
+      <c r="C153" s="190" t="n">
+        <v>111</v>
+      </c>
+      <c r="D153" s="191" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="E153" s="192" t="n">
+        <v>573</v>
+      </c>
+      <c r="F153" s="193" t="n">
+        <v>557</v>
+      </c>
+      <c r="G153" s="194" t="n">
+        <v>16</v>
+      </c>
+      <c r="H153" s="193" t="n">
+        <v>99</v>
+      </c>
+      <c r="I153" s="194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
-      <c r="B154" s="12" t="n"/>
+      <c r="A154" s="188" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" s="189" t="n">
+        <v>44356.50903418673</v>
+      </c>
+      <c r="C154" s="190" t="n">
+        <v>105</v>
+      </c>
+      <c r="D154" s="191" t="inlineStr">
+        <is>
+          <t>94.4</t>
+        </is>
+      </c>
+      <c r="E154" s="192" t="n">
+        <v>543</v>
+      </c>
+      <c r="F154" s="193" t="n">
+        <v>523</v>
+      </c>
+      <c r="G154" s="194" t="n">
+        <v>20</v>
+      </c>
+      <c r="H154" s="193" t="n">
+        <v>97</v>
+      </c>
+      <c r="I154" s="194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="155">
       <c r="B155" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -7351,7 +7351,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="189" t="n">
-        <v>44356.50903418673</v>
+        <v>44356.50903418982</v>
       </c>
       <c r="C154" s="190" t="n">
         <v>105</v>
@@ -7378,10 +7378,66 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" s="12" t="n"/>
+      <c r="A155" s="188" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" s="189" t="n">
+        <v>44357.55466658565</v>
+      </c>
+      <c r="C155" s="190" t="n">
+        <v>102</v>
+      </c>
+      <c r="D155" s="191" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="E155" s="192" t="n">
+        <v>536</v>
+      </c>
+      <c r="F155" s="193" t="n">
+        <v>510</v>
+      </c>
+      <c r="G155" s="194" t="n">
+        <v>26</v>
+      </c>
+      <c r="H155" s="193" t="n">
+        <v>93</v>
+      </c>
+      <c r="I155" s="194" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="156">
-      <c r="B156" s="12" t="n"/>
+      <c r="A156" s="188" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" s="189" t="n">
+        <v>44357.55562136219</v>
+      </c>
+      <c r="C156" s="190" t="n">
+        <v>106</v>
+      </c>
+      <c r="D156" s="191" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="E156" s="192" t="n">
+        <v>533</v>
+      </c>
+      <c r="F156" s="193" t="n">
+        <v>529</v>
+      </c>
+      <c r="G156" s="194" t="n">
+        <v>4</v>
+      </c>
+      <c r="H156" s="193" t="n">
+        <v>96</v>
+      </c>
+      <c r="I156" s="194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="B157" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7413,7 +7413,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="189" t="n">
-        <v>44357.55562136219</v>
+        <v>44357.55562136574</v>
       </c>
       <c r="C156" s="190" t="n">
         <v>106</v>
@@ -7440,7 +7440,35 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" s="12" t="n"/>
+      <c r="A157" s="188" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" s="189" t="n">
+        <v>44358.43818228501</v>
+      </c>
+      <c r="C157" s="190" t="n">
+        <v>100</v>
+      </c>
+      <c r="D157" s="191" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="E157" s="192" t="n">
+        <v>529</v>
+      </c>
+      <c r="F157" s="193" t="n">
+        <v>499</v>
+      </c>
+      <c r="G157" s="194" t="n">
+        <v>30</v>
+      </c>
+      <c r="H157" s="193" t="n">
+        <v>93</v>
+      </c>
+      <c r="I157" s="194" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="158">
       <c r="B158" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -7444,7 +7444,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="189" t="n">
-        <v>44358.43818228501</v>
+        <v>44358.43818228009</v>
       </c>
       <c r="C157" s="190" t="n">
         <v>100</v>
@@ -7471,10 +7471,66 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" s="12" t="n"/>
+      <c r="A158" s="188" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" s="189" t="n">
+        <v>44361.4516691551</v>
+      </c>
+      <c r="C158" s="190" t="n">
+        <v>96</v>
+      </c>
+      <c r="D158" s="191" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="E158" s="192" t="n">
+        <v>507</v>
+      </c>
+      <c r="F158" s="193" t="n">
+        <v>481</v>
+      </c>
+      <c r="G158" s="194" t="n">
+        <v>26</v>
+      </c>
+      <c r="H158" s="193" t="n">
+        <v>89</v>
+      </c>
+      <c r="I158" s="194" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="159">
-      <c r="B159" s="12" t="n"/>
+      <c r="A159" s="188" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" s="189" t="n">
+        <v>44361.45497946606</v>
+      </c>
+      <c r="C159" s="190" t="n">
+        <v>102</v>
+      </c>
+      <c r="D159" s="191" t="inlineStr">
+        <is>
+          <t>96.58</t>
+        </is>
+      </c>
+      <c r="E159" s="192" t="n">
+        <v>517</v>
+      </c>
+      <c r="F159" s="193" t="n">
+        <v>508</v>
+      </c>
+      <c r="G159" s="194" t="n">
+        <v>9</v>
+      </c>
+      <c r="H159" s="193" t="n">
+        <v>95</v>
+      </c>
+      <c r="I159" s="194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="B160" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7444,7 +7444,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="189" t="n">
-        <v>44358.43818228501</v>
+        <v>44358.43818228009</v>
       </c>
       <c r="C157" s="190" t="n">
         <v>100</v>
@@ -7471,10 +7471,66 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" s="12" t="n"/>
+      <c r="A158" s="188" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" s="189" t="n">
+        <v>44363.50739724537</v>
+      </c>
+      <c r="C158" s="190" t="n">
+        <v>102</v>
+      </c>
+      <c r="D158" s="191" t="inlineStr">
+        <is>
+          <t>96.23</t>
+        </is>
+      </c>
+      <c r="E158" s="192" t="n">
+        <v>517</v>
+      </c>
+      <c r="F158" s="193" t="n">
+        <v>510</v>
+      </c>
+      <c r="G158" s="194" t="n">
+        <v>7</v>
+      </c>
+      <c r="H158" s="193" t="n">
+        <v>92</v>
+      </c>
+      <c r="I158" s="194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
-      <c r="B159" s="12" t="n"/>
+      <c r="A159" s="188" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" s="189" t="n">
+        <v>44363.50831668422</v>
+      </c>
+      <c r="C159" s="190" t="n">
+        <v>98</v>
+      </c>
+      <c r="D159" s="191" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="E159" s="192" t="n">
+        <v>509</v>
+      </c>
+      <c r="F159" s="193" t="n">
+        <v>488</v>
+      </c>
+      <c r="G159" s="194" t="n">
+        <v>21</v>
+      </c>
+      <c r="H159" s="193" t="n">
+        <v>87</v>
+      </c>
+      <c r="I159" s="194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="160">
       <c r="B160" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7709,7 +7709,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="196" t="n">
-        <v>44365.45606625026</v>
+        <v>44365.45606625</v>
       </c>
       <c r="C163" s="197" t="n">
         <v>96</v>
@@ -7736,10 +7736,66 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" s="12" t="n"/>
+      <c r="A164" s="195" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" s="196" t="n">
+        <v>44367.80852819444</v>
+      </c>
+      <c r="C164" s="197" t="n">
+        <v>99</v>
+      </c>
+      <c r="D164" s="198" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="E164" s="199" t="n">
+        <v>521</v>
+      </c>
+      <c r="F164" s="200" t="n">
+        <v>494</v>
+      </c>
+      <c r="G164" s="201" t="n">
+        <v>27</v>
+      </c>
+      <c r="H164" s="200" t="n">
+        <v>90</v>
+      </c>
+      <c r="I164" s="201" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="165">
-      <c r="B165" s="12" t="n"/>
+      <c r="A165" s="195" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" s="196" t="n">
+        <v>44367.80928123475</v>
+      </c>
+      <c r="C165" s="197" t="n">
+        <v>99</v>
+      </c>
+      <c r="D165" s="198" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="E165" s="199" t="n">
+        <v>533</v>
+      </c>
+      <c r="F165" s="200" t="n">
+        <v>497</v>
+      </c>
+      <c r="G165" s="201" t="n">
+        <v>36</v>
+      </c>
+      <c r="H165" s="200" t="n">
+        <v>87</v>
+      </c>
+      <c r="I165" s="201" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="166">
       <c r="B166" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7771,7 +7771,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="196" t="n">
-        <v>44367.80928123475</v>
+        <v>44367.80928123843</v>
       </c>
       <c r="C165" s="197" t="n">
         <v>99</v>
@@ -7798,10 +7798,66 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" s="12" t="n"/>
+      <c r="A166" s="195" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" s="196" t="n">
+        <v>44368.68193483796</v>
+      </c>
+      <c r="C166" s="197" t="n">
+        <v>105</v>
+      </c>
+      <c r="D166" s="198" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="E166" s="199" t="n">
+        <v>528</v>
+      </c>
+      <c r="F166" s="200" t="n">
+        <v>523</v>
+      </c>
+      <c r="G166" s="201" t="n">
+        <v>5</v>
+      </c>
+      <c r="H166" s="200" t="n">
+        <v>97</v>
+      </c>
+      <c r="I166" s="201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
-      <c r="B167" s="12" t="n"/>
+      <c r="A167" s="195" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" s="196" t="n">
+        <v>44368.68269507503</v>
+      </c>
+      <c r="C167" s="197" t="n">
+        <v>96</v>
+      </c>
+      <c r="D167" s="198" t="inlineStr">
+        <is>
+          <t>91.4</t>
+        </is>
+      </c>
+      <c r="E167" s="199" t="n">
+        <v>519</v>
+      </c>
+      <c r="F167" s="200" t="n">
+        <v>478</v>
+      </c>
+      <c r="G167" s="201" t="n">
+        <v>41</v>
+      </c>
+      <c r="H167" s="200" t="n">
+        <v>90</v>
+      </c>
+      <c r="I167" s="201" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="168">
       <c r="B168" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7833,7 +7833,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="196" t="n">
-        <v>44368.68269507503</v>
+        <v>44368.68269506944</v>
       </c>
       <c r="C167" s="197" t="n">
         <v>96</v>
@@ -7860,13 +7860,97 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" s="12" t="n"/>
+      <c r="A168" s="195" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" s="196" t="n">
+        <v>44370.60874258102</v>
+      </c>
+      <c r="C168" s="197" t="n">
+        <v>103</v>
+      </c>
+      <c r="D168" s="198" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="E168" s="199" t="n">
+        <v>532</v>
+      </c>
+      <c r="F168" s="200" t="n">
+        <v>513</v>
+      </c>
+      <c r="G168" s="201" t="n">
+        <v>19</v>
+      </c>
+      <c r="H168" s="200" t="n">
+        <v>91</v>
+      </c>
+      <c r="I168" s="201" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="169">
-      <c r="B169" s="12" t="n"/>
+      <c r="A169" s="195" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" s="196" t="n">
+        <v>44370.60951033565</v>
+      </c>
+      <c r="C169" s="197" t="n">
+        <v>96</v>
+      </c>
+      <c r="D169" s="198" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="E169" s="199" t="n">
+        <v>512</v>
+      </c>
+      <c r="F169" s="200" t="n">
+        <v>478</v>
+      </c>
+      <c r="G169" s="201" t="n">
+        <v>34</v>
+      </c>
+      <c r="H169" s="200" t="n">
+        <v>88</v>
+      </c>
+      <c r="I169" s="201" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="170">
-      <c r="B170" s="12" t="n"/>
+      <c r="A170" s="195" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" s="196" t="n">
+        <v>44370.61026312325</v>
+      </c>
+      <c r="C170" s="197" t="n">
+        <v>100</v>
+      </c>
+      <c r="D170" s="198" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="E170" s="199" t="n">
+        <v>537</v>
+      </c>
+      <c r="F170" s="200" t="n">
+        <v>499</v>
+      </c>
+      <c r="G170" s="201" t="n">
+        <v>38</v>
+      </c>
+      <c r="H170" s="200" t="n">
+        <v>85</v>
+      </c>
+      <c r="I170" s="201" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="171">
       <c r="B171" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -7926,7 +7926,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="196" t="n">
-        <v>44370.61026312325</v>
+        <v>44370.610263125</v>
       </c>
       <c r="C170" s="197" t="n">
         <v>100</v>
@@ -7953,13 +7953,97 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" s="12" t="n"/>
+      <c r="A171" s="195" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" s="196" t="n">
+        <v>44371.5443584838</v>
+      </c>
+      <c r="C171" s="197" t="n">
+        <v>97</v>
+      </c>
+      <c r="D171" s="198" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="E171" s="199" t="n">
+        <v>546</v>
+      </c>
+      <c r="F171" s="200" t="n">
+        <v>486</v>
+      </c>
+      <c r="G171" s="201" t="n">
+        <v>60</v>
+      </c>
+      <c r="H171" s="200" t="n">
+        <v>92</v>
+      </c>
+      <c r="I171" s="201" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="172">
-      <c r="B172" s="12" t="n"/>
+      <c r="A172" s="195" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" s="196" t="n">
+        <v>44371.54589181713</v>
+      </c>
+      <c r="C172" s="197" t="n">
+        <v>96</v>
+      </c>
+      <c r="D172" s="198" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="E172" s="199" t="n">
+        <v>520</v>
+      </c>
+      <c r="F172" s="200" t="n">
+        <v>480</v>
+      </c>
+      <c r="G172" s="201" t="n">
+        <v>40</v>
+      </c>
+      <c r="H172" s="200" t="n">
+        <v>87</v>
+      </c>
+      <c r="I172" s="201" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="173">
-      <c r="B173" s="12" t="n"/>
+      <c r="A173" s="195" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" s="196" t="n">
+        <v>44371.54772485093</v>
+      </c>
+      <c r="C173" s="197" t="n">
+        <v>98</v>
+      </c>
+      <c r="D173" s="198" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="E173" s="199" t="n">
+        <v>531</v>
+      </c>
+      <c r="F173" s="200" t="n">
+        <v>491</v>
+      </c>
+      <c r="G173" s="201" t="n">
+        <v>40</v>
+      </c>
+      <c r="H173" s="200" t="n">
+        <v>93</v>
+      </c>
+      <c r="I173" s="201" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="174">
       <c r="B174" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -8019,7 +8019,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="196" t="n">
-        <v>44371.54772485093</v>
+        <v>44371.54772484954</v>
       </c>
       <c r="C173" s="197" t="n">
         <v>98</v>
@@ -8046,13 +8046,97 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" s="12" t="n"/>
+      <c r="A174" s="195" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" s="196" t="n">
+        <v>44372.65321142361</v>
+      </c>
+      <c r="C174" s="197" t="n">
+        <v>98</v>
+      </c>
+      <c r="D174" s="198" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="E174" s="199" t="n">
+        <v>528</v>
+      </c>
+      <c r="F174" s="200" t="n">
+        <v>491</v>
+      </c>
+      <c r="G174" s="201" t="n">
+        <v>37</v>
+      </c>
+      <c r="H174" s="200" t="n">
+        <v>89</v>
+      </c>
+      <c r="I174" s="201" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="175">
-      <c r="B175" s="12" t="n"/>
+      <c r="A175" s="195" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" s="196" t="n">
+        <v>44372.65404373842</v>
+      </c>
+      <c r="C175" s="197" t="n">
+        <v>99</v>
+      </c>
+      <c r="D175" s="198" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="E175" s="199" t="n">
+        <v>502</v>
+      </c>
+      <c r="F175" s="200" t="n">
+        <v>495</v>
+      </c>
+      <c r="G175" s="201" t="n">
+        <v>7</v>
+      </c>
+      <c r="H175" s="200" t="n">
+        <v>90</v>
+      </c>
+      <c r="I175" s="201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
-      <c r="B176" s="12" t="n"/>
+      <c r="A176" s="195" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" s="196" t="n">
+        <v>44372.6548001528</v>
+      </c>
+      <c r="C176" s="197" t="n">
+        <v>99</v>
+      </c>
+      <c r="D176" s="198" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="E176" s="199" t="n">
+        <v>506</v>
+      </c>
+      <c r="F176" s="200" t="n">
+        <v>494</v>
+      </c>
+      <c r="G176" s="201" t="n">
+        <v>12</v>
+      </c>
+      <c r="H176" s="200" t="n">
+        <v>90</v>
+      </c>
+      <c r="I176" s="201" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="177">
       <c r="B177" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -8253,7 +8253,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="203" t="n">
-        <v>44386.58085054</v>
+        <v>44386.58085054398</v>
       </c>
       <c r="C178" s="204" t="n">
         <v>96</v>
@@ -8280,10 +8280,66 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" s="12" t="n"/>
+      <c r="A179" s="202" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" s="203" t="n">
+        <v>44389.43490059028</v>
+      </c>
+      <c r="C179" s="204" t="n">
+        <v>93</v>
+      </c>
+      <c r="D179" s="205" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="E179" s="206" t="n">
+        <v>476</v>
+      </c>
+      <c r="F179" s="207" t="n">
+        <v>463</v>
+      </c>
+      <c r="G179" s="208" t="n">
+        <v>13</v>
+      </c>
+      <c r="H179" s="207" t="n">
+        <v>84</v>
+      </c>
+      <c r="I179" s="208" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="180">
-      <c r="B180" s="12" t="n"/>
+      <c r="A180" s="202" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" s="203" t="n">
+        <v>44389.47781137043</v>
+      </c>
+      <c r="C180" s="204" t="n">
+        <v>96</v>
+      </c>
+      <c r="D180" s="205" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="E180" s="206" t="n">
+        <v>512</v>
+      </c>
+      <c r="F180" s="207" t="n">
+        <v>480</v>
+      </c>
+      <c r="G180" s="208" t="n">
+        <v>32</v>
+      </c>
+      <c r="H180" s="207" t="n">
+        <v>93</v>
+      </c>
+      <c r="I180" s="208" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="181">
       <c r="B181" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -8315,7 +8315,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="203" t="n">
-        <v>44389.47781137043</v>
+        <v>44389.47781136574</v>
       </c>
       <c r="C180" s="204" t="n">
         <v>96</v>
@@ -8342,13 +8342,97 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" s="12" t="n"/>
+      <c r="A181" s="202" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" s="203" t="n">
+        <v>44393.47728902777</v>
+      </c>
+      <c r="C181" s="204" t="n">
+        <v>93</v>
+      </c>
+      <c r="D181" s="205" t="inlineStr">
+        <is>
+          <t>91.7</t>
+        </is>
+      </c>
+      <c r="E181" s="206" t="n">
+        <v>499</v>
+      </c>
+      <c r="F181" s="207" t="n">
+        <v>464</v>
+      </c>
+      <c r="G181" s="208" t="n">
+        <v>35</v>
+      </c>
+      <c r="H181" s="207" t="n">
+        <v>85</v>
+      </c>
+      <c r="I181" s="208" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="182">
-      <c r="B182" s="12" t="n"/>
+      <c r="A182" s="202" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" s="203" t="n">
+        <v>44393.47812322916</v>
+      </c>
+      <c r="C182" s="204" t="n">
+        <v>94</v>
+      </c>
+      <c r="D182" s="205" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="E182" s="206" t="n">
+        <v>504</v>
+      </c>
+      <c r="F182" s="207" t="n">
+        <v>472</v>
+      </c>
+      <c r="G182" s="208" t="n">
+        <v>32</v>
+      </c>
+      <c r="H182" s="207" t="n">
+        <v>85</v>
+      </c>
+      <c r="I182" s="208" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="183">
-      <c r="B183" s="12" t="n"/>
+      <c r="A183" s="202" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" s="203" t="n">
+        <v>44393.47887866898</v>
+      </c>
+      <c r="C183" s="204" t="n">
+        <v>96</v>
+      </c>
+      <c r="D183" s="205" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="E183" s="206" t="n">
+        <v>502</v>
+      </c>
+      <c r="F183" s="207" t="n">
+        <v>479</v>
+      </c>
+      <c r="G183" s="208" t="n">
+        <v>23</v>
+      </c>
+      <c r="H183" s="207" t="n">
+        <v>88</v>
+      </c>
+      <c r="I183" s="208" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="184">
       <c r="B184" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -8435,13 +8435,97 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" s="12" t="n"/>
+      <c r="A184" s="202" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" s="203" t="n">
+        <v>44396.53111090278</v>
+      </c>
+      <c r="C184" s="204" t="n">
+        <v>95</v>
+      </c>
+      <c r="D184" s="205" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="E184" s="206" t="n">
+        <v>491</v>
+      </c>
+      <c r="F184" s="207" t="n">
+        <v>474</v>
+      </c>
+      <c r="G184" s="208" t="n">
+        <v>17</v>
+      </c>
+      <c r="H184" s="207" t="n">
+        <v>86</v>
+      </c>
+      <c r="I184" s="208" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="185">
-      <c r="B185" s="12" t="n"/>
+      <c r="A185" s="202" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" s="203" t="n">
+        <v>44396.53215702546</v>
+      </c>
+      <c r="C185" s="204" t="n">
+        <v>97</v>
+      </c>
+      <c r="D185" s="205" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="E185" s="206" t="n">
+        <v>510</v>
+      </c>
+      <c r="F185" s="207" t="n">
+        <v>486</v>
+      </c>
+      <c r="G185" s="208" t="n">
+        <v>24</v>
+      </c>
+      <c r="H185" s="207" t="n">
+        <v>86</v>
+      </c>
+      <c r="I185" s="208" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="186">
-      <c r="B186" s="12" t="n"/>
+      <c r="A186" s="202" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" s="203" t="n">
+        <v>44396.53292596956</v>
+      </c>
+      <c r="C186" s="204" t="n">
+        <v>95</v>
+      </c>
+      <c r="D186" s="205" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="E186" s="206" t="n">
+        <v>480</v>
+      </c>
+      <c r="F186" s="207" t="n">
+        <v>474</v>
+      </c>
+      <c r="G186" s="208" t="n">
+        <v>6</v>
+      </c>
+      <c r="H186" s="207" t="n">
+        <v>83</v>
+      </c>
+      <c r="I186" s="208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="B187" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -8501,7 +8501,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="203" t="n">
-        <v>44396.53292596956</v>
+        <v>44396.53292597222</v>
       </c>
       <c r="C186" s="204" t="n">
         <v>95</v>
@@ -8528,7 +8528,35 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" s="12" t="n"/>
+      <c r="A187" s="202" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" s="203" t="n">
+        <v>44400.41453326052</v>
+      </c>
+      <c r="C187" s="204" t="n">
+        <v>93</v>
+      </c>
+      <c r="D187" s="205" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="E187" s="206" t="n">
+        <v>470</v>
+      </c>
+      <c r="F187" s="207" t="n">
+        <v>466</v>
+      </c>
+      <c r="G187" s="208" t="n">
+        <v>4</v>
+      </c>
+      <c r="H187" s="207" t="n">
+        <v>88</v>
+      </c>
+      <c r="I187" s="208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="B188" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -8532,7 +8532,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="203" t="n">
-        <v>44400.41453326052</v>
+        <v>44400.41453326389</v>
       </c>
       <c r="C187" s="204" t="n">
         <v>93</v>
@@ -8559,13 +8559,97 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" s="12" t="n"/>
+      <c r="A188" s="202" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" s="203" t="n">
+        <v>44401.52559597222</v>
+      </c>
+      <c r="C188" s="204" t="n">
+        <v>92</v>
+      </c>
+      <c r="D188" s="205" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="E188" s="206" t="n">
+        <v>487</v>
+      </c>
+      <c r="F188" s="207" t="n">
+        <v>458</v>
+      </c>
+      <c r="G188" s="208" t="n">
+        <v>29</v>
+      </c>
+      <c r="H188" s="207" t="n">
+        <v>85</v>
+      </c>
+      <c r="I188" s="208" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="189">
-      <c r="B189" s="12" t="n"/>
+      <c r="A189" s="202" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" s="203" t="n">
+        <v>44401.52640949074</v>
+      </c>
+      <c r="C189" s="204" t="n">
+        <v>104</v>
+      </c>
+      <c r="D189" s="205" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="E189" s="206" t="n">
+        <v>527</v>
+      </c>
+      <c r="F189" s="207" t="n">
+        <v>520</v>
+      </c>
+      <c r="G189" s="208" t="n">
+        <v>7</v>
+      </c>
+      <c r="H189" s="207" t="n">
+        <v>96</v>
+      </c>
+      <c r="I189" s="208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
-      <c r="B190" s="12" t="n"/>
+      <c r="A190" s="202" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" s="203" t="n">
+        <v>44401.52720685305</v>
+      </c>
+      <c r="C190" s="204" t="n">
+        <v>98</v>
+      </c>
+      <c r="D190" s="205" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="E190" s="206" t="n">
+        <v>509</v>
+      </c>
+      <c r="F190" s="207" t="n">
+        <v>491</v>
+      </c>
+      <c r="G190" s="208" t="n">
+        <v>18</v>
+      </c>
+      <c r="H190" s="207" t="n">
+        <v>89</v>
+      </c>
+      <c r="I190" s="208" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="191">
       <c r="B191" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\WPMTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B30459A-E348-4DA7-98ED-E1F0842A2BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AA2AA5-30B7-4B1E-A14A-703BA4D0B2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,13 +523,13 @@
     <t>97.69</t>
   </si>
   <si>
-    <t>93.54</t>
-  </si>
-  <si>
     <t>91.97</t>
   </si>
   <si>
     <t>94.97</t>
+  </si>
+  <si>
+    <t>93.54</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2908,27 +2908,6 @@
     <xf numFmtId="0" fontId="58" fillId="175" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="170" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="171" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="172" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="171" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="173" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="174" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="175" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3212,8 +3191,8 @@
   <dimension ref="A1:I4434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E196" sqref="E196"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O185" sqref="O185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8392,379 +8371,379 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="202">
+      <c r="A179" s="188">
         <v>178</v>
       </c>
-      <c r="B179" s="203">
+      <c r="B179" s="189">
         <v>44389.434900590277</v>
       </c>
-      <c r="C179" s="204">
+      <c r="C179" s="190">
         <v>93</v>
       </c>
-      <c r="D179" s="205" t="s">
+      <c r="D179" s="191" t="s">
         <v>161</v>
       </c>
-      <c r="E179" s="206">
+      <c r="E179" s="192">
         <v>476</v>
       </c>
-      <c r="F179" s="207">
+      <c r="F179" s="193">
         <v>463</v>
       </c>
-      <c r="G179" s="208">
+      <c r="G179" s="194">
         <v>13</v>
       </c>
-      <c r="H179" s="207">
+      <c r="H179" s="193">
         <v>84</v>
       </c>
-      <c r="I179" s="208">
+      <c r="I179" s="194">
         <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="202">
+      <c r="A180" s="188">
         <v>179</v>
       </c>
-      <c r="B180" s="203">
+      <c r="B180" s="189">
         <v>44389.477811365738</v>
       </c>
-      <c r="C180" s="204">
+      <c r="C180" s="190">
         <v>96</v>
       </c>
-      <c r="D180" s="205" t="s">
+      <c r="D180" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="E180" s="206">
+      <c r="E180" s="192">
         <v>512</v>
       </c>
-      <c r="F180" s="207">
+      <c r="F180" s="193">
         <v>480</v>
       </c>
-      <c r="G180" s="208">
+      <c r="G180" s="194">
         <v>32</v>
       </c>
-      <c r="H180" s="207">
+      <c r="H180" s="193">
         <v>93</v>
       </c>
-      <c r="I180" s="208">
+      <c r="I180" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="202">
+      <c r="A181" s="188">
         <v>180</v>
       </c>
-      <c r="B181" s="203">
+      <c r="B181" s="189">
         <v>44393.477289027767</v>
       </c>
-      <c r="C181" s="204">
+      <c r="C181" s="190">
         <v>93</v>
       </c>
-      <c r="D181" s="205" t="s">
+      <c r="D181" s="191" t="s">
         <v>162</v>
       </c>
-      <c r="E181" s="206">
+      <c r="E181" s="192">
         <v>499</v>
       </c>
-      <c r="F181" s="207">
+      <c r="F181" s="193">
         <v>464</v>
       </c>
-      <c r="G181" s="208">
+      <c r="G181" s="194">
         <v>35</v>
       </c>
-      <c r="H181" s="207">
+      <c r="H181" s="193">
         <v>85</v>
       </c>
-      <c r="I181" s="208">
+      <c r="I181" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="202">
+      <c r="A182" s="188">
         <v>181</v>
       </c>
-      <c r="B182" s="203">
+      <c r="B182" s="189">
         <v>44393.478123229157</v>
       </c>
-      <c r="C182" s="204">
+      <c r="C182" s="190">
         <v>94</v>
       </c>
-      <c r="D182" s="205" t="s">
+      <c r="D182" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="E182" s="206">
+      <c r="E182" s="192">
         <v>504</v>
       </c>
-      <c r="F182" s="207">
+      <c r="F182" s="193">
         <v>472</v>
       </c>
-      <c r="G182" s="208">
+      <c r="G182" s="194">
         <v>32</v>
       </c>
-      <c r="H182" s="207">
+      <c r="H182" s="193">
         <v>85</v>
       </c>
-      <c r="I182" s="208">
+      <c r="I182" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="202">
+      <c r="A183" s="188">
         <v>182</v>
       </c>
-      <c r="B183" s="203">
+      <c r="B183" s="189">
         <v>44393.478878668982</v>
       </c>
-      <c r="C183" s="204">
+      <c r="C183" s="190">
         <v>96</v>
       </c>
-      <c r="D183" s="205" t="s">
+      <c r="D183" s="191" t="s">
         <v>163</v>
       </c>
-      <c r="E183" s="206">
+      <c r="E183" s="192">
         <v>502</v>
       </c>
-      <c r="F183" s="207">
+      <c r="F183" s="193">
         <v>479</v>
       </c>
-      <c r="G183" s="208">
+      <c r="G183" s="194">
         <v>23</v>
       </c>
-      <c r="H183" s="207">
+      <c r="H183" s="193">
         <v>88</v>
       </c>
-      <c r="I183" s="208">
+      <c r="I183" s="194">
         <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="202">
+      <c r="A184" s="188">
         <v>183</v>
       </c>
-      <c r="B184" s="203">
+      <c r="B184" s="189">
         <v>44396.531110902783</v>
       </c>
-      <c r="C184" s="204">
+      <c r="C184" s="190">
         <v>95</v>
       </c>
-      <c r="D184" s="205" t="s">
+      <c r="D184" s="191" t="s">
         <v>164</v>
       </c>
-      <c r="E184" s="206">
+      <c r="E184" s="192">
         <v>491</v>
       </c>
-      <c r="F184" s="207">
+      <c r="F184" s="193">
         <v>474</v>
       </c>
-      <c r="G184" s="208">
+      <c r="G184" s="194">
         <v>17</v>
       </c>
-      <c r="H184" s="207">
+      <c r="H184" s="193">
         <v>86</v>
       </c>
-      <c r="I184" s="208">
+      <c r="I184" s="194">
         <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="202">
+      <c r="A185" s="188">
         <v>184</v>
       </c>
-      <c r="B185" s="203">
+      <c r="B185" s="189">
         <v>44396.53215702546</v>
       </c>
-      <c r="C185" s="204">
+      <c r="C185" s="190">
         <v>97</v>
       </c>
-      <c r="D185" s="205" t="s">
+      <c r="D185" s="191" t="s">
         <v>81</v>
       </c>
-      <c r="E185" s="206">
+      <c r="E185" s="192">
         <v>510</v>
       </c>
-      <c r="F185" s="207">
+      <c r="F185" s="193">
         <v>486</v>
       </c>
-      <c r="G185" s="208">
+      <c r="G185" s="194">
         <v>24</v>
       </c>
-      <c r="H185" s="207">
+      <c r="H185" s="193">
         <v>86</v>
       </c>
-      <c r="I185" s="208">
+      <c r="I185" s="194">
         <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="202">
+      <c r="A186" s="188">
         <v>185</v>
       </c>
-      <c r="B186" s="203">
+      <c r="B186" s="189">
         <v>44396.53292597222</v>
       </c>
-      <c r="C186" s="204">
+      <c r="C186" s="190">
         <v>95</v>
       </c>
-      <c r="D186" s="205" t="s">
+      <c r="D186" s="191" t="s">
         <v>165</v>
       </c>
-      <c r="E186" s="206">
+      <c r="E186" s="192">
         <v>480</v>
       </c>
-      <c r="F186" s="207">
+      <c r="F186" s="193">
         <v>474</v>
       </c>
-      <c r="G186" s="208">
+      <c r="G186" s="194">
         <v>6</v>
       </c>
-      <c r="H186" s="207">
+      <c r="H186" s="193">
         <v>83</v>
       </c>
-      <c r="I186" s="208">
+      <c r="I186" s="194">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="202">
+      <c r="A187" s="188">
         <v>186</v>
       </c>
-      <c r="B187" s="203">
+      <c r="B187" s="189">
         <v>44400.414533263887</v>
       </c>
-      <c r="C187" s="204">
+      <c r="C187" s="190">
         <v>93</v>
       </c>
-      <c r="D187" s="205" t="s">
+      <c r="D187" s="191" t="s">
         <v>166</v>
       </c>
-      <c r="E187" s="206">
+      <c r="E187" s="192">
         <v>470</v>
       </c>
-      <c r="F187" s="207">
+      <c r="F187" s="193">
         <v>466</v>
       </c>
-      <c r="G187" s="208">
+      <c r="G187" s="194">
         <v>4</v>
       </c>
-      <c r="H187" s="207">
+      <c r="H187" s="193">
         <v>88</v>
       </c>
-      <c r="I187" s="208">
+      <c r="I187" s="194">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="209">
+      <c r="A188" s="188">
         <v>187</v>
       </c>
-      <c r="B188" s="210">
+      <c r="B188" s="189">
         <v>44401.52559597222</v>
       </c>
-      <c r="C188" s="211">
+      <c r="C188" s="190">
         <v>92</v>
       </c>
-      <c r="D188" s="212" t="s">
+      <c r="D188" s="191" t="s">
+        <v>167</v>
+      </c>
+      <c r="E188" s="192">
+        <v>487</v>
+      </c>
+      <c r="F188" s="193">
+        <v>458</v>
+      </c>
+      <c r="G188" s="194">
+        <v>29</v>
+      </c>
+      <c r="H188" s="193">
+        <v>85</v>
+      </c>
+      <c r="I188" s="194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="188">
+        <v>188</v>
+      </c>
+      <c r="B189" s="189">
+        <v>44401.52640949074</v>
+      </c>
+      <c r="C189" s="190">
+        <v>104</v>
+      </c>
+      <c r="D189" s="191" t="s">
+        <v>65</v>
+      </c>
+      <c r="E189" s="192">
+        <v>527</v>
+      </c>
+      <c r="F189" s="193">
+        <v>520</v>
+      </c>
+      <c r="G189" s="194">
+        <v>7</v>
+      </c>
+      <c r="H189" s="193">
+        <v>96</v>
+      </c>
+      <c r="I189" s="194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="188">
+        <v>189</v>
+      </c>
+      <c r="B190" s="189">
+        <v>44401.527206851853</v>
+      </c>
+      <c r="C190" s="190">
+        <v>98</v>
+      </c>
+      <c r="D190" s="191" t="s">
         <v>168</v>
       </c>
-      <c r="E188" s="213">
-        <v>487</v>
-      </c>
-      <c r="F188" s="214">
-        <v>458</v>
-      </c>
-      <c r="G188" s="215">
-        <v>29</v>
-      </c>
-      <c r="H188" s="214">
-        <v>85</v>
-      </c>
-      <c r="I188" s="215">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="209">
-        <v>188</v>
-      </c>
-      <c r="B189" s="210">
-        <v>44401.52640949074</v>
-      </c>
-      <c r="C189" s="211">
-        <v>104</v>
-      </c>
-      <c r="D189" s="212" t="s">
-        <v>65</v>
-      </c>
-      <c r="E189" s="213">
-        <v>527</v>
-      </c>
-      <c r="F189" s="214">
-        <v>520</v>
-      </c>
-      <c r="G189" s="215">
-        <v>7</v>
-      </c>
-      <c r="H189" s="214">
-        <v>96</v>
-      </c>
-      <c r="I189" s="215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="209">
-        <v>189</v>
-      </c>
-      <c r="B190" s="210">
-        <v>44401.527206853047</v>
-      </c>
-      <c r="C190" s="211">
+      <c r="E190" s="192">
+        <v>509</v>
+      </c>
+      <c r="F190" s="193">
+        <v>491</v>
+      </c>
+      <c r="G190" s="194">
+        <v>18</v>
+      </c>
+      <c r="H190" s="193">
+        <v>89</v>
+      </c>
+      <c r="I190" s="194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="188">
+        <v>190</v>
+      </c>
+      <c r="B191" s="189">
+        <v>44403.4596321875</v>
+      </c>
+      <c r="C191" s="190">
         <v>98</v>
       </c>
-      <c r="D190" s="212" t="s">
+      <c r="D191" s="191" t="s">
         <v>169</v>
       </c>
-      <c r="E190" s="213">
-        <v>509</v>
-      </c>
-      <c r="F190" s="214">
-        <v>491</v>
-      </c>
-      <c r="G190" s="215">
-        <v>18</v>
-      </c>
-      <c r="H190" s="214">
+      <c r="E191" s="192">
+        <v>522</v>
+      </c>
+      <c r="F191" s="193">
+        <v>492</v>
+      </c>
+      <c r="G191" s="194">
+        <v>30</v>
+      </c>
+      <c r="H191" s="193">
         <v>89</v>
       </c>
-      <c r="I190" s="215">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="202">
-        <v>190</v>
-      </c>
-      <c r="B191" s="203">
-        <v>44403.459632190257</v>
-      </c>
-      <c r="C191" s="204">
-        <v>98</v>
-      </c>
-      <c r="D191" s="205" t="s">
-        <v>167</v>
-      </c>
-      <c r="E191" s="206">
-        <v>522</v>
-      </c>
-      <c r="F191" s="207">
-        <v>492</v>
-      </c>
-      <c r="G191" s="208">
-        <v>30</v>
-      </c>
-      <c r="H191" s="207">
-        <v>89</v>
-      </c>
-      <c r="I191" s="208">
+      <c r="I191" s="194">
         <v>5</v>
       </c>
     </row>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -8828,7 +8828,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="210" t="n">
-        <v>44406.50629594012</v>
+        <v>44406.5062959375</v>
       </c>
       <c r="C194" s="211" t="n">
         <v>95</v>
@@ -8855,13 +8855,97 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" s="12" t="n"/>
+      <c r="A195" s="209" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" s="210" t="n">
+        <v>44407.43585697917</v>
+      </c>
+      <c r="C195" s="211" t="n">
+        <v>93</v>
+      </c>
+      <c r="D195" s="212" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="E195" s="213" t="n">
+        <v>496</v>
+      </c>
+      <c r="F195" s="214" t="n">
+        <v>466</v>
+      </c>
+      <c r="G195" s="215" t="n">
+        <v>30</v>
+      </c>
+      <c r="H195" s="214" t="n">
+        <v>86</v>
+      </c>
+      <c r="I195" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="196">
-      <c r="B196" s="12" t="n"/>
+      <c r="A196" s="209" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" s="210" t="n">
+        <v>44407.43687762731</v>
+      </c>
+      <c r="C196" s="211" t="n">
+        <v>100</v>
+      </c>
+      <c r="D196" s="212" t="inlineStr">
+        <is>
+          <t>95.62</t>
+        </is>
+      </c>
+      <c r="E196" s="213" t="n">
+        <v>516</v>
+      </c>
+      <c r="F196" s="214" t="n">
+        <v>502</v>
+      </c>
+      <c r="G196" s="215" t="n">
+        <v>14</v>
+      </c>
+      <c r="H196" s="214" t="n">
+        <v>90</v>
+      </c>
+      <c r="I196" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
-      <c r="B197" s="12" t="n"/>
+      <c r="A197" s="209" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" s="210" t="n">
+        <v>44407.43814572247</v>
+      </c>
+      <c r="C197" s="211" t="n">
+        <v>98</v>
+      </c>
+      <c r="D197" s="212" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="E197" s="213" t="n">
+        <v>527</v>
+      </c>
+      <c r="F197" s="214" t="n">
+        <v>492</v>
+      </c>
+      <c r="G197" s="215" t="n">
+        <v>35</v>
+      </c>
+      <c r="H197" s="214" t="n">
+        <v>90</v>
+      </c>
+      <c r="I197" s="215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="198">
       <c r="B198" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -8921,7 +8921,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="210" t="n">
-        <v>44407.43814572247</v>
+        <v>44407.43814571759</v>
       </c>
       <c r="C197" s="211" t="n">
         <v>98</v>
@@ -8948,13 +8948,97 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" s="12" t="n"/>
+      <c r="A198" s="209" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" s="210" t="n">
+        <v>44410.4387937037</v>
+      </c>
+      <c r="C198" s="211" t="n">
+        <v>94</v>
+      </c>
+      <c r="D198" s="212" t="inlineStr">
+        <is>
+          <t>94.4</t>
+        </is>
+      </c>
+      <c r="E198" s="213" t="n">
+        <v>492</v>
+      </c>
+      <c r="F198" s="214" t="n">
+        <v>472</v>
+      </c>
+      <c r="G198" s="215" t="n">
+        <v>20</v>
+      </c>
+      <c r="H198" s="214" t="n">
+        <v>88</v>
+      </c>
+      <c r="I198" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="199">
-      <c r="B199" s="12" t="n"/>
+      <c r="A199" s="209" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" s="210" t="n">
+        <v>44410.44662721065</v>
+      </c>
+      <c r="C199" s="211" t="n">
+        <v>94</v>
+      </c>
+      <c r="D199" s="212" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="E199" s="213" t="n">
+        <v>499</v>
+      </c>
+      <c r="F199" s="214" t="n">
+        <v>472</v>
+      </c>
+      <c r="G199" s="215" t="n">
+        <v>27</v>
+      </c>
+      <c r="H199" s="214" t="n">
+        <v>86</v>
+      </c>
+      <c r="I199" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="200">
-      <c r="B200" s="12" t="n"/>
+      <c r="A200" s="209" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" s="210" t="n">
+        <v>44410.45104606668</v>
+      </c>
+      <c r="C200" s="211" t="n">
+        <v>100</v>
+      </c>
+      <c r="D200" s="212" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="E200" s="213" t="n">
+        <v>514</v>
+      </c>
+      <c r="F200" s="214" t="n">
+        <v>498</v>
+      </c>
+      <c r="G200" s="215" t="n">
+        <v>16</v>
+      </c>
+      <c r="H200" s="214" t="n">
+        <v>93</v>
+      </c>
+      <c r="I200" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="201">
       <c r="B201" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -9014,7 +9014,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="210" t="n">
-        <v>44410.45104606668</v>
+        <v>44410.45104606482</v>
       </c>
       <c r="C200" s="211" t="n">
         <v>100</v>
@@ -9041,10 +9041,66 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" s="12" t="n"/>
+      <c r="A201" s="209" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" s="210" t="n">
+        <v>44414.41732924768</v>
+      </c>
+      <c r="C201" s="211" t="n">
+        <v>100</v>
+      </c>
+      <c r="D201" s="212" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="E201" s="213" t="n">
+        <v>514</v>
+      </c>
+      <c r="F201" s="214" t="n">
+        <v>498</v>
+      </c>
+      <c r="G201" s="215" t="n">
+        <v>16</v>
+      </c>
+      <c r="H201" s="214" t="n">
+        <v>88</v>
+      </c>
+      <c r="I201" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
-      <c r="B202" s="12" t="n"/>
+      <c r="A202" s="209" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" s="210" t="n">
+        <v>44414.42607866609</v>
+      </c>
+      <c r="C202" s="211" t="n">
+        <v>97</v>
+      </c>
+      <c r="D202" s="212" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="E202" s="213" t="n">
+        <v>491</v>
+      </c>
+      <c r="F202" s="214" t="n">
+        <v>484</v>
+      </c>
+      <c r="G202" s="215" t="n">
+        <v>7</v>
+      </c>
+      <c r="H202" s="214" t="n">
+        <v>93</v>
+      </c>
+      <c r="I202" s="215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="B203" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -9076,7 +9076,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="210" t="n">
-        <v>44414.42607866609</v>
+        <v>44414.42607866898</v>
       </c>
       <c r="C202" s="211" t="n">
         <v>97</v>
@@ -9103,10 +9103,66 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" s="12" t="n"/>
+      <c r="A203" s="209" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" s="210" t="n">
+        <v>44415.56865163195</v>
+      </c>
+      <c r="C203" s="211" t="n">
+        <v>107</v>
+      </c>
+      <c r="D203" s="212" t="inlineStr">
+        <is>
+          <t>96.4</t>
+        </is>
+      </c>
+      <c r="E203" s="213" t="n">
+        <v>548</v>
+      </c>
+      <c r="F203" s="214" t="n">
+        <v>535</v>
+      </c>
+      <c r="G203" s="215" t="n">
+        <v>13</v>
+      </c>
+      <c r="H203" s="214" t="n">
+        <v>99</v>
+      </c>
+      <c r="I203" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
-      <c r="B204" s="12" t="n"/>
+      <c r="A204" s="209" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" s="210" t="n">
+        <v>44415.56997729642</v>
+      </c>
+      <c r="C204" s="211" t="n">
+        <v>92</v>
+      </c>
+      <c r="D204" s="212" t="inlineStr">
+        <is>
+          <t>91.3</t>
+        </is>
+      </c>
+      <c r="E204" s="213" t="n">
+        <v>498</v>
+      </c>
+      <c r="F204" s="214" t="n">
+        <v>462</v>
+      </c>
+      <c r="G204" s="215" t="n">
+        <v>36</v>
+      </c>
+      <c r="H204" s="214" t="n">
+        <v>86</v>
+      </c>
+      <c r="I204" s="215" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="205">
       <c r="B205" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -9138,7 +9138,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="210" t="n">
-        <v>44415.56997729642</v>
+        <v>44415.56997729166</v>
       </c>
       <c r="C204" s="211" t="n">
         <v>92</v>
@@ -9165,13 +9165,97 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" s="12" t="n"/>
+      <c r="A205" s="209" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" s="210" t="n">
+        <v>44417.44742699074</v>
+      </c>
+      <c r="C205" s="211" t="n">
+        <v>95</v>
+      </c>
+      <c r="D205" s="212" t="inlineStr">
+        <is>
+          <t>97.14</t>
+        </is>
+      </c>
+      <c r="E205" s="213" t="n">
+        <v>482</v>
+      </c>
+      <c r="F205" s="214" t="n">
+        <v>476</v>
+      </c>
+      <c r="G205" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="H205" s="214" t="n">
+        <v>90</v>
+      </c>
+      <c r="I205" s="215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
-      <c r="B206" s="12" t="n"/>
+      <c r="A206" s="209" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" s="210" t="n">
+        <v>44417.44818670139</v>
+      </c>
+      <c r="C206" s="211" t="n">
+        <v>93</v>
+      </c>
+      <c r="D206" s="212" t="inlineStr">
+        <is>
+          <t>94.9</t>
+        </is>
+      </c>
+      <c r="E206" s="213" t="n">
+        <v>484</v>
+      </c>
+      <c r="F206" s="214" t="n">
+        <v>465</v>
+      </c>
+      <c r="G206" s="215" t="n">
+        <v>19</v>
+      </c>
+      <c r="H206" s="214" t="n">
+        <v>85</v>
+      </c>
+      <c r="I206" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="207">
-      <c r="B207" s="12" t="n"/>
+      <c r="A207" s="209" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" s="210" t="n">
+        <v>44417.44924269927</v>
+      </c>
+      <c r="C207" s="211" t="n">
+        <v>96</v>
+      </c>
+      <c r="D207" s="212" t="inlineStr">
+        <is>
+          <t>94.5</t>
+        </is>
+      </c>
+      <c r="E207" s="213" t="n">
+        <v>504</v>
+      </c>
+      <c r="F207" s="214" t="n">
+        <v>481</v>
+      </c>
+      <c r="G207" s="215" t="n">
+        <v>23</v>
+      </c>
+      <c r="H207" s="214" t="n">
+        <v>90</v>
+      </c>
+      <c r="I207" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="208">
       <c r="B208" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -9231,7 +9231,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="210" t="n">
-        <v>44417.44924269927</v>
+        <v>44417.44924269676</v>
       </c>
       <c r="C207" s="211" t="n">
         <v>96</v>
@@ -9258,7 +9258,35 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" s="12" t="n"/>
+      <c r="A208" s="209" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" s="210" t="n">
+        <v>44419.44812431939</v>
+      </c>
+      <c r="C208" s="211" t="n">
+        <v>92</v>
+      </c>
+      <c r="D208" s="212" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="E208" s="213" t="n">
+        <v>484</v>
+      </c>
+      <c r="F208" s="214" t="n">
+        <v>458</v>
+      </c>
+      <c r="G208" s="215" t="n">
+        <v>26</v>
+      </c>
+      <c r="H208" s="214" t="n">
+        <v>85</v>
+      </c>
+      <c r="I208" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="209">
       <c r="B209" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -9262,7 +9262,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="210" t="n">
-        <v>44419.44812431939</v>
+        <v>44419.44812431713</v>
       </c>
       <c r="C208" s="211" t="n">
         <v>92</v>
@@ -9289,13 +9289,97 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" s="12" t="n"/>
+      <c r="A209" s="209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" s="210" t="n">
+        <v>44421.47279306713</v>
+      </c>
+      <c r="C209" s="211" t="n">
+        <v>91</v>
+      </c>
+      <c r="D209" s="212" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="E209" s="213" t="n">
+        <v>471</v>
+      </c>
+      <c r="F209" s="214" t="n">
+        <v>454</v>
+      </c>
+      <c r="G209" s="215" t="n">
+        <v>17</v>
+      </c>
+      <c r="H209" s="214" t="n">
+        <v>81</v>
+      </c>
+      <c r="I209" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="210">
-      <c r="B210" s="12" t="n"/>
+      <c r="A210" s="209" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" s="210" t="n">
+        <v>44421.47368756944</v>
+      </c>
+      <c r="C210" s="211" t="n">
+        <v>102</v>
+      </c>
+      <c r="D210" s="212" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="E210" s="213" t="n">
+        <v>524</v>
+      </c>
+      <c r="F210" s="214" t="n">
+        <v>512</v>
+      </c>
+      <c r="G210" s="215" t="n">
+        <v>12</v>
+      </c>
+      <c r="H210" s="214" t="n">
+        <v>92</v>
+      </c>
+      <c r="I210" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="211">
-      <c r="B211" s="12" t="n"/>
+      <c r="A211" s="209" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" s="210" t="n">
+        <v>44421.47458557176</v>
+      </c>
+      <c r="C211" s="211" t="n">
+        <v>96</v>
+      </c>
+      <c r="D211" s="212" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="E211" s="213" t="n">
+        <v>496</v>
+      </c>
+      <c r="F211" s="214" t="n">
+        <v>478</v>
+      </c>
+      <c r="G211" s="215" t="n">
+        <v>18</v>
+      </c>
+      <c r="H211" s="214" t="n">
+        <v>86</v>
+      </c>
+      <c r="I211" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="212">
       <c r="B212" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -9355,7 +9355,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="210" t="n">
-        <v>44421.47458557176</v>
+        <v>44421.47458556713</v>
       </c>
       <c r="C211" s="211" t="n">
         <v>96</v>
@@ -9382,13 +9382,97 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" s="12" t="n"/>
+      <c r="A212" s="209" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" s="210" t="n">
+        <v>44424.45695643518</v>
+      </c>
+      <c r="C212" s="211" t="n">
+        <v>95</v>
+      </c>
+      <c r="D212" s="212" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="E212" s="213" t="n">
+        <v>495</v>
+      </c>
+      <c r="F212" s="214" t="n">
+        <v>475</v>
+      </c>
+      <c r="G212" s="215" t="n">
+        <v>20</v>
+      </c>
+      <c r="H212" s="214" t="n">
+        <v>88</v>
+      </c>
+      <c r="I212" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="213">
-      <c r="B213" s="12" t="n"/>
+      <c r="A213" s="209" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" s="210" t="n">
+        <v>44424.45827631944</v>
+      </c>
+      <c r="C213" s="211" t="n">
+        <v>97</v>
+      </c>
+      <c r="D213" s="212" t="inlineStr">
+        <is>
+          <t>96.23</t>
+        </is>
+      </c>
+      <c r="E213" s="213" t="n">
+        <v>490</v>
+      </c>
+      <c r="F213" s="214" t="n">
+        <v>485</v>
+      </c>
+      <c r="G213" s="215" t="n">
+        <v>5</v>
+      </c>
+      <c r="H213" s="214" t="n">
+        <v>91</v>
+      </c>
+      <c r="I213" s="215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
-      <c r="B214" s="12" t="n"/>
+      <c r="A214" s="209" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" s="210" t="n">
+        <v>44424.46024068434</v>
+      </c>
+      <c r="C214" s="211" t="n">
+        <v>102</v>
+      </c>
+      <c r="D214" s="212" t="inlineStr">
+        <is>
+          <t>96.58</t>
+        </is>
+      </c>
+      <c r="E214" s="213" t="n">
+        <v>522</v>
+      </c>
+      <c r="F214" s="214" t="n">
+        <v>508</v>
+      </c>
+      <c r="G214" s="215" t="n">
+        <v>14</v>
+      </c>
+      <c r="H214" s="214" t="n">
+        <v>92</v>
+      </c>
+      <c r="I214" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="B215" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -9448,7 +9448,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="210" t="n">
-        <v>44424.46024068434</v>
+        <v>44424.46024068287</v>
       </c>
       <c r="C214" s="211" t="n">
         <v>102</v>
@@ -9475,7 +9475,35 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" s="12" t="n"/>
+      <c r="A215" s="209" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" s="210" t="n">
+        <v>44427.71984667768</v>
+      </c>
+      <c r="C215" s="211" t="n">
+        <v>94</v>
+      </c>
+      <c r="D215" s="212" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="E215" s="213" t="n">
+        <v>486</v>
+      </c>
+      <c r="F215" s="214" t="n">
+        <v>471</v>
+      </c>
+      <c r="G215" s="215" t="n">
+        <v>15</v>
+      </c>
+      <c r="H215" s="214" t="n">
+        <v>82</v>
+      </c>
+      <c r="I215" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="216">
       <c r="B216" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -9479,7 +9479,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="210" t="n">
-        <v>44427.71984667768</v>
+        <v>44427.71984667824</v>
       </c>
       <c r="C215" s="211" t="n">
         <v>94</v>
@@ -9506,13 +9506,97 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" s="12" t="n"/>
+      <c r="A216" s="209" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" s="210" t="n">
+        <v>44428.41302072917</v>
+      </c>
+      <c r="C216" s="211" t="n">
+        <v>99</v>
+      </c>
+      <c r="D216" s="212" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="E216" s="213" t="n">
+        <v>508</v>
+      </c>
+      <c r="F216" s="214" t="n">
+        <v>495</v>
+      </c>
+      <c r="G216" s="215" t="n">
+        <v>13</v>
+      </c>
+      <c r="H216" s="214" t="n">
+        <v>88</v>
+      </c>
+      <c r="I216" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
-      <c r="B217" s="12" t="n"/>
+      <c r="A217" s="209" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" s="210" t="n">
+        <v>44428.4200649537</v>
+      </c>
+      <c r="C217" s="211" t="n">
+        <v>93</v>
+      </c>
+      <c r="D217" s="212" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="E217" s="213" t="n">
+        <v>505</v>
+      </c>
+      <c r="F217" s="214" t="n">
+        <v>467</v>
+      </c>
+      <c r="G217" s="215" t="n">
+        <v>38</v>
+      </c>
+      <c r="H217" s="214" t="n">
+        <v>85</v>
+      </c>
+      <c r="I217" s="215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
-      <c r="B218" s="12" t="n"/>
+      <c r="A218" s="209" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" s="210" t="n">
+        <v>44428.42559129432</v>
+      </c>
+      <c r="C218" s="211" t="n">
+        <v>93</v>
+      </c>
+      <c r="D218" s="212" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="E218" s="213" t="n">
+        <v>474</v>
+      </c>
+      <c r="F218" s="214" t="n">
+        <v>464</v>
+      </c>
+      <c r="G218" s="215" t="n">
+        <v>10</v>
+      </c>
+      <c r="H218" s="214" t="n">
+        <v>86</v>
+      </c>
+      <c r="I218" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="B219" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -9572,7 +9572,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="210" t="n">
-        <v>44428.42559129432</v>
+        <v>44428.4255912963</v>
       </c>
       <c r="C218" s="211" t="n">
         <v>93</v>
@@ -9599,13 +9599,97 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" s="12" t="n"/>
+      <c r="A219" s="209" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" s="210" t="n">
+        <v>44438.45211193287</v>
+      </c>
+      <c r="C219" s="211" t="n">
+        <v>95</v>
+      </c>
+      <c r="D219" s="212" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="E219" s="213" t="n">
+        <v>494</v>
+      </c>
+      <c r="F219" s="214" t="n">
+        <v>477</v>
+      </c>
+      <c r="G219" s="215" t="n">
+        <v>17</v>
+      </c>
+      <c r="H219" s="214" t="n">
+        <v>88</v>
+      </c>
+      <c r="I219" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="220">
-      <c r="B220" s="12" t="n"/>
+      <c r="A220" s="209" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" s="210" t="n">
+        <v>44438.4528793287</v>
+      </c>
+      <c r="C220" s="211" t="n">
+        <v>98</v>
+      </c>
+      <c r="D220" s="212" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="E220" s="213" t="n">
+        <v>507</v>
+      </c>
+      <c r="F220" s="214" t="n">
+        <v>491</v>
+      </c>
+      <c r="G220" s="215" t="n">
+        <v>16</v>
+      </c>
+      <c r="H220" s="214" t="n">
+        <v>91</v>
+      </c>
+      <c r="I220" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
-      <c r="B221" s="12" t="n"/>
+      <c r="A221" s="209" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" s="210" t="n">
+        <v>44438.45393625642</v>
+      </c>
+      <c r="C221" s="211" t="n">
+        <v>97</v>
+      </c>
+      <c r="D221" s="212" t="inlineStr">
+        <is>
+          <t>96.8</t>
+        </is>
+      </c>
+      <c r="E221" s="213" t="n">
+        <v>495</v>
+      </c>
+      <c r="F221" s="214" t="n">
+        <v>484</v>
+      </c>
+      <c r="G221" s="215" t="n">
+        <v>11</v>
+      </c>
+      <c r="H221" s="214" t="n">
+        <v>88</v>
+      </c>
+      <c r="I221" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="222">
       <c r="B222" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -9665,7 +9665,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="210" t="n">
-        <v>44438.45393625642</v>
+        <v>44438.45393626158</v>
       </c>
       <c r="C221" s="211" t="n">
         <v>97</v>
@@ -9692,13 +9692,97 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" s="12" t="n"/>
+      <c r="A222" s="209" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" s="210" t="n">
+        <v>44442.42926684028</v>
+      </c>
+      <c r="C222" s="211" t="n">
+        <v>97</v>
+      </c>
+      <c r="D222" s="212" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="E222" s="213" t="n">
+        <v>512</v>
+      </c>
+      <c r="F222" s="214" t="n">
+        <v>484</v>
+      </c>
+      <c r="G222" s="215" t="n">
+        <v>28</v>
+      </c>
+      <c r="H222" s="214" t="n">
+        <v>89</v>
+      </c>
+      <c r="I222" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="223">
-      <c r="B223" s="12" t="n"/>
+      <c r="A223" s="209" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" s="210" t="n">
+        <v>44442.45110280093</v>
+      </c>
+      <c r="C223" s="211" t="n">
+        <v>100</v>
+      </c>
+      <c r="D223" s="212" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="E223" s="213" t="n">
+        <v>505</v>
+      </c>
+      <c r="F223" s="214" t="n">
+        <v>502</v>
+      </c>
+      <c r="G223" s="215" t="n">
+        <v>3</v>
+      </c>
+      <c r="H223" s="214" t="n">
+        <v>91</v>
+      </c>
+      <c r="I223" s="215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
-      <c r="B224" s="12" t="n"/>
+      <c r="A224" s="209" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" s="210" t="n">
+        <v>44442.45186696462</v>
+      </c>
+      <c r="C224" s="211" t="n">
+        <v>93</v>
+      </c>
+      <c r="D224" s="212" t="inlineStr">
+        <is>
+          <t>94.9</t>
+        </is>
+      </c>
+      <c r="E224" s="213" t="n">
+        <v>479</v>
+      </c>
+      <c r="F224" s="214" t="n">
+        <v>465</v>
+      </c>
+      <c r="G224" s="215" t="n">
+        <v>14</v>
+      </c>
+      <c r="H224" s="214" t="n">
+        <v>90</v>
+      </c>
+      <c r="I224" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="225">
       <c r="B225" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -9758,7 +9758,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="210" t="n">
-        <v>44442.45186696462</v>
+        <v>44442.45186696759</v>
       </c>
       <c r="C224" s="211" t="n">
         <v>93</v>
@@ -9785,13 +9785,97 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" s="12" t="n"/>
+      <c r="A225" s="209" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" s="210" t="n">
+        <v>44445.52882871528</v>
+      </c>
+      <c r="C225" s="211" t="n">
+        <v>102</v>
+      </c>
+      <c r="D225" s="212" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="E225" s="213" t="n">
+        <v>537</v>
+      </c>
+      <c r="F225" s="214" t="n">
+        <v>512</v>
+      </c>
+      <c r="G225" s="215" t="n">
+        <v>25</v>
+      </c>
+      <c r="H225" s="214" t="n">
+        <v>95</v>
+      </c>
+      <c r="I225" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="226">
-      <c r="B226" s="12" t="n"/>
+      <c r="A226" s="209" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" s="210" t="n">
+        <v>44445.52959167824</v>
+      </c>
+      <c r="C226" s="211" t="n">
+        <v>107</v>
+      </c>
+      <c r="D226" s="212" t="inlineStr">
+        <is>
+          <t>96.04</t>
+        </is>
+      </c>
+      <c r="E226" s="213" t="n">
+        <v>552</v>
+      </c>
+      <c r="F226" s="214" t="n">
+        <v>533</v>
+      </c>
+      <c r="G226" s="215" t="n">
+        <v>19</v>
+      </c>
+      <c r="H226" s="214" t="n">
+        <v>94</v>
+      </c>
+      <c r="I226" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="227">
-      <c r="B227" s="12" t="n"/>
+      <c r="A227" s="209" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" s="210" t="n">
+        <v>44445.53042090897</v>
+      </c>
+      <c r="C227" s="211" t="n">
+        <v>92</v>
+      </c>
+      <c r="D227" s="212" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="E227" s="213" t="n">
+        <v>481</v>
+      </c>
+      <c r="F227" s="214" t="n">
+        <v>459</v>
+      </c>
+      <c r="G227" s="215" t="n">
+        <v>22</v>
+      </c>
+      <c r="H227" s="214" t="n">
+        <v>88</v>
+      </c>
+      <c r="I227" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="228">
       <c r="B228" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -9851,7 +9851,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="210" t="n">
-        <v>44445.53042090897</v>
+        <v>44445.53042091435</v>
       </c>
       <c r="C227" s="211" t="n">
         <v>92</v>
@@ -9878,13 +9878,97 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" s="12" t="n"/>
+      <c r="A228" s="209" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" s="210" t="n">
+        <v>44449.40605070602</v>
+      </c>
+      <c r="C228" s="211" t="n">
+        <v>96</v>
+      </c>
+      <c r="D228" s="212" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="E228" s="213" t="n">
+        <v>498</v>
+      </c>
+      <c r="F228" s="214" t="n">
+        <v>482</v>
+      </c>
+      <c r="G228" s="215" t="n">
+        <v>16</v>
+      </c>
+      <c r="H228" s="214" t="n">
+        <v>91</v>
+      </c>
+      <c r="I228" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="229">
-      <c r="B229" s="12" t="n"/>
+      <c r="A229" s="209" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" s="210" t="n">
+        <v>44449.71532849537</v>
+      </c>
+      <c r="C229" s="211" t="n">
+        <v>102</v>
+      </c>
+      <c r="D229" s="212" t="inlineStr">
+        <is>
+          <t>96.97</t>
+        </is>
+      </c>
+      <c r="E229" s="213" t="n">
+        <v>516</v>
+      </c>
+      <c r="F229" s="214" t="n">
+        <v>512</v>
+      </c>
+      <c r="G229" s="215" t="n">
+        <v>4</v>
+      </c>
+      <c r="H229" s="214" t="n">
+        <v>92</v>
+      </c>
+      <c r="I229" s="215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
-      <c r="B230" s="12" t="n"/>
+      <c r="A230" s="209" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" s="210" t="n">
+        <v>44449.71608469441</v>
+      </c>
+      <c r="C230" s="211" t="n">
+        <v>99</v>
+      </c>
+      <c r="D230" s="212" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="E230" s="213" t="n">
+        <v>523</v>
+      </c>
+      <c r="F230" s="214" t="n">
+        <v>497</v>
+      </c>
+      <c r="G230" s="215" t="n">
+        <v>26</v>
+      </c>
+      <c r="H230" s="214" t="n">
+        <v>96</v>
+      </c>
+      <c r="I230" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="231">
       <c r="B231" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -9944,7 +9944,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="210" t="n">
-        <v>44449.71608469441</v>
+        <v>44449.71608469907</v>
       </c>
       <c r="C230" s="211" t="n">
         <v>99</v>
@@ -9971,16 +9971,128 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" s="12" t="n"/>
+      <c r="A231" s="209" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" s="210" t="n">
+        <v>44453.48376060186</v>
+      </c>
+      <c r="C231" s="211" t="n">
+        <v>94</v>
+      </c>
+      <c r="D231" s="212" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="E231" s="213" t="n">
+        <v>503</v>
+      </c>
+      <c r="F231" s="214" t="n">
+        <v>472</v>
+      </c>
+      <c r="G231" s="215" t="n">
+        <v>31</v>
+      </c>
+      <c r="H231" s="214" t="n">
+        <v>85</v>
+      </c>
+      <c r="I231" s="215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="232">
-      <c r="B232" s="12" t="n"/>
+      <c r="A232" s="209" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" s="210" t="n">
+        <v>44453.48616922454</v>
+      </c>
+      <c r="C232" s="211" t="n">
+        <v>93</v>
+      </c>
+      <c r="D232" s="212" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="E232" s="213" t="n">
+        <v>493</v>
+      </c>
+      <c r="F232" s="214" t="n">
+        <v>465</v>
+      </c>
+      <c r="G232" s="215" t="n">
+        <v>28</v>
+      </c>
+      <c r="H232" s="214" t="n">
+        <v>90</v>
+      </c>
+      <c r="I232" s="215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="233">
-      <c r="B233" s="12" t="n"/>
+      <c r="A233" s="209" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" s="210" t="n">
+        <v>44453.48694111111</v>
+      </c>
+      <c r="C233" s="211" t="n">
+        <v>99</v>
+      </c>
+      <c r="D233" s="212" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="E233" s="213" t="n">
+        <v>497</v>
+      </c>
+      <c r="F233" s="214" t="n">
+        <v>497</v>
+      </c>
+      <c r="G233" s="215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" s="214" t="n">
+        <v>88</v>
+      </c>
+      <c r="I233" s="215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
-      <c r="B234" s="12" t="n"/>
+      <c r="A234" s="209" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" s="210" t="n">
+        <v>44453.4901640895</v>
+      </c>
+      <c r="C234" s="211" t="n">
+        <v>94</v>
+      </c>
+      <c r="D234" s="212" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="E234" s="213" t="n">
+        <v>506</v>
+      </c>
+      <c r="F234" s="214" t="n">
+        <v>471</v>
+      </c>
+      <c r="G234" s="215" t="n">
+        <v>35</v>
+      </c>
+      <c r="H234" s="214" t="n">
+        <v>89</v>
+      </c>
+      <c r="I234" s="215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="235">
       <c r="B235" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -10068,7 +10068,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="210" t="n">
-        <v>44453.4901640895</v>
+        <v>44453.49016408565</v>
       </c>
       <c r="C234" s="211" t="n">
         <v>94</v>
@@ -10095,16 +10095,128 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" s="12" t="n"/>
+      <c r="A235" s="209" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" s="210" t="n">
+        <v>44456.44722706018</v>
+      </c>
+      <c r="C235" s="211" t="n">
+        <v>98</v>
+      </c>
+      <c r="D235" s="212" t="inlineStr">
+        <is>
+          <t>89.6</t>
+        </is>
+      </c>
+      <c r="E235" s="213" t="n">
+        <v>546</v>
+      </c>
+      <c r="F235" s="214" t="n">
+        <v>491</v>
+      </c>
+      <c r="G235" s="215" t="n">
+        <v>55</v>
+      </c>
+      <c r="H235" s="214" t="n">
+        <v>90</v>
+      </c>
+      <c r="I235" s="215" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="236">
-      <c r="B236" s="12" t="n"/>
+      <c r="A236" s="209" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" s="210" t="n">
+        <v>44456.44801939815</v>
+      </c>
+      <c r="C236" s="211" t="n">
+        <v>103</v>
+      </c>
+      <c r="D236" s="212" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="E236" s="213" t="n">
+        <v>522</v>
+      </c>
+      <c r="F236" s="214" t="n">
+        <v>515</v>
+      </c>
+      <c r="G236" s="215" t="n">
+        <v>7</v>
+      </c>
+      <c r="H236" s="214" t="n">
+        <v>97</v>
+      </c>
+      <c r="I236" s="215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
-      <c r="B237" s="12" t="n"/>
+      <c r="A237" s="209" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" s="210" t="n">
+        <v>44456.4494472338</v>
+      </c>
+      <c r="C237" s="211" t="n">
+        <v>100</v>
+      </c>
+      <c r="D237" s="212" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="E237" s="213" t="n">
+        <v>521</v>
+      </c>
+      <c r="F237" s="214" t="n">
+        <v>500</v>
+      </c>
+      <c r="G237" s="215" t="n">
+        <v>21</v>
+      </c>
+      <c r="H237" s="214" t="n">
+        <v>93</v>
+      </c>
+      <c r="I237" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="238">
-      <c r="B238" s="12" t="n"/>
+      <c r="A238" s="209" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" s="210" t="n">
+        <v>44456.45084150082</v>
+      </c>
+      <c r="C238" s="211" t="n">
+        <v>99</v>
+      </c>
+      <c r="D238" s="212" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="E238" s="213" t="n">
+        <v>512</v>
+      </c>
+      <c r="F238" s="214" t="n">
+        <v>493</v>
+      </c>
+      <c r="G238" s="215" t="n">
+        <v>19</v>
+      </c>
+      <c r="H238" s="214" t="n">
+        <v>88</v>
+      </c>
+      <c r="I238" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="239">
       <c r="B239" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -10192,7 +10192,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="210" t="n">
-        <v>44456.45084150082</v>
+        <v>44456.45084150463</v>
       </c>
       <c r="C238" s="211" t="n">
         <v>99</v>
@@ -10219,13 +10219,97 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" s="12" t="n"/>
+      <c r="A239" s="209" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" s="210" t="n">
+        <v>44459.69192976852</v>
+      </c>
+      <c r="C239" s="211" t="n">
+        <v>93</v>
+      </c>
+      <c r="D239" s="212" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="E239" s="213" t="n">
+        <v>492</v>
+      </c>
+      <c r="F239" s="214" t="n">
+        <v>467</v>
+      </c>
+      <c r="G239" s="215" t="n">
+        <v>25</v>
+      </c>
+      <c r="H239" s="214" t="n">
+        <v>89</v>
+      </c>
+      <c r="I239" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="240">
-      <c r="B240" s="12" t="n"/>
+      <c r="A240" s="209" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" s="210" t="n">
+        <v>44459.69268576389</v>
+      </c>
+      <c r="C240" s="211" t="n">
+        <v>95</v>
+      </c>
+      <c r="D240" s="212" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="E240" s="213" t="n">
+        <v>484</v>
+      </c>
+      <c r="F240" s="214" t="n">
+        <v>473</v>
+      </c>
+      <c r="G240" s="215" t="n">
+        <v>11</v>
+      </c>
+      <c r="H240" s="214" t="n">
+        <v>86</v>
+      </c>
+      <c r="I240" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
-      <c r="B241" s="12" t="n"/>
+      <c r="A241" s="209" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" s="210" t="n">
+        <v>44459.69416458411</v>
+      </c>
+      <c r="C241" s="211" t="n">
+        <v>90</v>
+      </c>
+      <c r="D241" s="212" t="inlineStr">
+        <is>
+          <t>91.8</t>
+        </is>
+      </c>
+      <c r="E241" s="213" t="n">
+        <v>477</v>
+      </c>
+      <c r="F241" s="214" t="n">
+        <v>448</v>
+      </c>
+      <c r="G241" s="215" t="n">
+        <v>29</v>
+      </c>
+      <c r="H241" s="214" t="n">
+        <v>82</v>
+      </c>
+      <c r="I241" s="215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="242">
       <c r="B242" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -10285,7 +10285,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="210" t="n">
-        <v>44459.69416458411</v>
+        <v>44459.69416458334</v>
       </c>
       <c r="C241" s="211" t="n">
         <v>90</v>
@@ -10312,13 +10312,97 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" s="12" t="n"/>
+      <c r="A242" s="209" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" s="210" t="n">
+        <v>44463.44017357639</v>
+      </c>
+      <c r="C242" s="211" t="n">
+        <v>93</v>
+      </c>
+      <c r="D242" s="212" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="E242" s="213" t="n">
+        <v>493</v>
+      </c>
+      <c r="F242" s="214" t="n">
+        <v>464</v>
+      </c>
+      <c r="G242" s="215" t="n">
+        <v>29</v>
+      </c>
+      <c r="H242" s="214" t="n">
+        <v>84</v>
+      </c>
+      <c r="I242" s="215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="243">
-      <c r="B243" s="12" t="n"/>
+      <c r="A243" s="209" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" s="210" t="n">
+        <v>44463.4416840625</v>
+      </c>
+      <c r="C243" s="211" t="n">
+        <v>98</v>
+      </c>
+      <c r="D243" s="212" t="inlineStr">
+        <is>
+          <t>96.06</t>
+        </is>
+      </c>
+      <c r="E243" s="213" t="n">
+        <v>505</v>
+      </c>
+      <c r="F243" s="214" t="n">
+        <v>488</v>
+      </c>
+      <c r="G243" s="215" t="n">
+        <v>17</v>
+      </c>
+      <c r="H243" s="214" t="n">
+        <v>85</v>
+      </c>
+      <c r="I243" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="244">
-      <c r="B244" s="12" t="n"/>
+      <c r="A244" s="209" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" s="210" t="n">
+        <v>44463.4428894877</v>
+      </c>
+      <c r="C244" s="211" t="n">
+        <v>105</v>
+      </c>
+      <c r="D244" s="212" t="inlineStr">
+        <is>
+          <t>95.47</t>
+        </is>
+      </c>
+      <c r="E244" s="213" t="n">
+        <v>551</v>
+      </c>
+      <c r="F244" s="214" t="n">
+        <v>527</v>
+      </c>
+      <c r="G244" s="215" t="n">
+        <v>24</v>
+      </c>
+      <c r="H244" s="214" t="n">
+        <v>99</v>
+      </c>
+      <c r="I244" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="245">
       <c r="B245" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -10378,7 +10378,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="210" t="n">
-        <v>44463.4428894877</v>
+        <v>44463.44288949074</v>
       </c>
       <c r="C244" s="211" t="n">
         <v>105</v>
@@ -10405,13 +10405,97 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" s="12" t="n"/>
+      <c r="A245" s="209" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" s="210" t="n">
+        <v>44466.50981211806</v>
+      </c>
+      <c r="C245" s="211" t="n">
+        <v>100</v>
+      </c>
+      <c r="D245" s="212" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="E245" s="213" t="n">
+        <v>530</v>
+      </c>
+      <c r="F245" s="214" t="n">
+        <v>499</v>
+      </c>
+      <c r="G245" s="215" t="n">
+        <v>31</v>
+      </c>
+      <c r="H245" s="214" t="n">
+        <v>87</v>
+      </c>
+      <c r="I245" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="246">
-      <c r="B246" s="12" t="n"/>
+      <c r="A246" s="209" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" s="210" t="n">
+        <v>44466.51061697917</v>
+      </c>
+      <c r="C246" s="211" t="n">
+        <v>103</v>
+      </c>
+      <c r="D246" s="212" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="E246" s="213" t="n">
+        <v>528</v>
+      </c>
+      <c r="F246" s="214" t="n">
+        <v>513</v>
+      </c>
+      <c r="G246" s="215" t="n">
+        <v>15</v>
+      </c>
+      <c r="H246" s="214" t="n">
+        <v>94</v>
+      </c>
+      <c r="I246" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
-      <c r="B247" s="12" t="n"/>
+      <c r="A247" s="209" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" s="210" t="n">
+        <v>44466.5113730118</v>
+      </c>
+      <c r="C247" s="211" t="n">
+        <v>99</v>
+      </c>
+      <c r="D247" s="212" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="E247" s="213" t="n">
+        <v>502</v>
+      </c>
+      <c r="F247" s="214" t="n">
+        <v>495</v>
+      </c>
+      <c r="G247" s="215" t="n">
+        <v>7</v>
+      </c>
+      <c r="H247" s="214" t="n">
+        <v>93</v>
+      </c>
+      <c r="I247" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="248">
       <c r="B248" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -10471,7 +10471,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="210" t="n">
-        <v>44466.5113730118</v>
+        <v>44466.51137300926</v>
       </c>
       <c r="C247" s="211" t="n">
         <v>99</v>
@@ -10498,13 +10498,97 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" s="12" t="n"/>
+      <c r="A248" s="209" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" s="210" t="n">
+        <v>44470.47239423611</v>
+      </c>
+      <c r="C248" s="211" t="n">
+        <v>94</v>
+      </c>
+      <c r="D248" s="212" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="E248" s="213" t="n">
+        <v>501</v>
+      </c>
+      <c r="F248" s="214" t="n">
+        <v>472</v>
+      </c>
+      <c r="G248" s="215" t="n">
+        <v>29</v>
+      </c>
+      <c r="H248" s="214" t="n">
+        <v>87</v>
+      </c>
+      <c r="I248" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="249">
-      <c r="B249" s="12" t="n"/>
+      <c r="A249" s="209" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" s="210" t="n">
+        <v>44470.47412454861</v>
+      </c>
+      <c r="C249" s="211" t="n">
+        <v>97</v>
+      </c>
+      <c r="D249" s="212" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="E249" s="213" t="n">
+        <v>519</v>
+      </c>
+      <c r="F249" s="214" t="n">
+        <v>483</v>
+      </c>
+      <c r="G249" s="215" t="n">
+        <v>36</v>
+      </c>
+      <c r="H249" s="214" t="n">
+        <v>87</v>
+      </c>
+      <c r="I249" s="215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="250">
-      <c r="B250" s="12" t="n"/>
+      <c r="A250" s="209" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" s="210" t="n">
+        <v>44470.47511543953</v>
+      </c>
+      <c r="C250" s="211" t="n">
+        <v>97</v>
+      </c>
+      <c r="D250" s="212" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="E250" s="213" t="n">
+        <v>515</v>
+      </c>
+      <c r="F250" s="214" t="n">
+        <v>483</v>
+      </c>
+      <c r="G250" s="215" t="n">
+        <v>32</v>
+      </c>
+      <c r="H250" s="214" t="n">
+        <v>83</v>
+      </c>
+      <c r="I250" s="215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="251">
       <c r="B251" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -10564,7 +10564,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="210" t="n">
-        <v>44470.47511543953</v>
+        <v>44470.47511543982</v>
       </c>
       <c r="C250" s="211" t="n">
         <v>97</v>
@@ -10591,13 +10591,97 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" s="12" t="n"/>
+      <c r="A251" s="209" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" s="210" t="n">
+        <v>44473.52100392361</v>
+      </c>
+      <c r="C251" s="211" t="n">
+        <v>103</v>
+      </c>
+      <c r="D251" s="212" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="E251" s="213" t="n">
+        <v>532</v>
+      </c>
+      <c r="F251" s="214" t="n">
+        <v>515</v>
+      </c>
+      <c r="G251" s="215" t="n">
+        <v>17</v>
+      </c>
+      <c r="H251" s="214" t="n">
+        <v>95</v>
+      </c>
+      <c r="I251" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="252">
-      <c r="B252" s="12" t="n"/>
+      <c r="A252" s="209" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" s="210" t="n">
+        <v>44473.52176475694</v>
+      </c>
+      <c r="C252" s="211" t="n">
+        <v>93</v>
+      </c>
+      <c r="D252" s="212" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="E252" s="213" t="n">
+        <v>511</v>
+      </c>
+      <c r="F252" s="214" t="n">
+        <v>467</v>
+      </c>
+      <c r="G252" s="215" t="n">
+        <v>44</v>
+      </c>
+      <c r="H252" s="214" t="n">
+        <v>87</v>
+      </c>
+      <c r="I252" s="215" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="253">
-      <c r="B253" s="12" t="n"/>
+      <c r="A253" s="209" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" s="210" t="n">
+        <v>44473.52260169313</v>
+      </c>
+      <c r="C253" s="211" t="n">
+        <v>105</v>
+      </c>
+      <c r="D253" s="212" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="E253" s="213" t="n">
+        <v>535</v>
+      </c>
+      <c r="F253" s="214" t="n">
+        <v>526</v>
+      </c>
+      <c r="G253" s="215" t="n">
+        <v>9</v>
+      </c>
+      <c r="H253" s="214" t="n">
+        <v>97</v>
+      </c>
+      <c r="I253" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="254">
       <c r="B254" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -10657,7 +10657,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="210" t="n">
-        <v>44473.52260169313</v>
+        <v>44473.52260168982</v>
       </c>
       <c r="C253" s="211" t="n">
         <v>105</v>
@@ -10684,13 +10684,97 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" s="12" t="n"/>
+      <c r="A254" s="209" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" s="210" t="n">
+        <v>44477.5740778125</v>
+      </c>
+      <c r="C254" s="211" t="n">
+        <v>102</v>
+      </c>
+      <c r="D254" s="212" t="inlineStr">
+        <is>
+          <t>95.68</t>
+        </is>
+      </c>
+      <c r="E254" s="213" t="n">
+        <v>523</v>
+      </c>
+      <c r="F254" s="214" t="n">
+        <v>509</v>
+      </c>
+      <c r="G254" s="215" t="n">
+        <v>14</v>
+      </c>
+      <c r="H254" s="214" t="n">
+        <v>94</v>
+      </c>
+      <c r="I254" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="255">
-      <c r="B255" s="12" t="n"/>
+      <c r="A255" s="209" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" s="210" t="n">
+        <v>44477.57505174768</v>
+      </c>
+      <c r="C255" s="211" t="n">
+        <v>100</v>
+      </c>
+      <c r="D255" s="212" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="E255" s="213" t="n">
+        <v>535</v>
+      </c>
+      <c r="F255" s="214" t="n">
+        <v>502</v>
+      </c>
+      <c r="G255" s="215" t="n">
+        <v>33</v>
+      </c>
+      <c r="H255" s="214" t="n">
+        <v>96</v>
+      </c>
+      <c r="I255" s="215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="256">
-      <c r="B256" s="12" t="n"/>
+      <c r="A256" s="209" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" s="210" t="n">
+        <v>44477.5807539413</v>
+      </c>
+      <c r="C256" s="211" t="n">
+        <v>102</v>
+      </c>
+      <c r="D256" s="212" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="E256" s="213" t="n">
+        <v>515</v>
+      </c>
+      <c r="F256" s="214" t="n">
+        <v>510</v>
+      </c>
+      <c r="G256" s="215" t="n">
+        <v>5</v>
+      </c>
+      <c r="H256" s="214" t="n">
+        <v>93</v>
+      </c>
+      <c r="I256" s="215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="B257" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -10750,7 +10750,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="210" t="n">
-        <v>44477.5807539413</v>
+        <v>44477.58075394676</v>
       </c>
       <c r="C256" s="211" t="n">
         <v>102</v>
@@ -10777,13 +10777,97 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" s="12" t="n"/>
+      <c r="A257" s="209" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" s="210" t="n">
+        <v>44480.48243241898</v>
+      </c>
+      <c r="C257" s="211" t="n">
+        <v>91</v>
+      </c>
+      <c r="D257" s="212" t="inlineStr">
+        <is>
+          <t>89.7</t>
+        </is>
+      </c>
+      <c r="E257" s="213" t="n">
+        <v>495</v>
+      </c>
+      <c r="F257" s="214" t="n">
+        <v>453</v>
+      </c>
+      <c r="G257" s="215" t="n">
+        <v>42</v>
+      </c>
+      <c r="H257" s="214" t="n">
+        <v>79</v>
+      </c>
+      <c r="I257" s="215" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="258">
-      <c r="B258" s="12" t="n"/>
+      <c r="A258" s="209" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" s="210" t="n">
+        <v>44480.48318747685</v>
+      </c>
+      <c r="C258" s="211" t="n">
+        <v>95</v>
+      </c>
+      <c r="D258" s="212" t="inlineStr">
+        <is>
+          <t>95.2</t>
+        </is>
+      </c>
+      <c r="E258" s="213" t="n">
+        <v>494</v>
+      </c>
+      <c r="F258" s="214" t="n">
+        <v>476</v>
+      </c>
+      <c r="G258" s="215" t="n">
+        <v>18</v>
+      </c>
+      <c r="H258" s="214" t="n">
+        <v>89</v>
+      </c>
+      <c r="I258" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="259">
-      <c r="B259" s="12" t="n"/>
+      <c r="A259" s="209" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" s="210" t="n">
+        <v>44480.4839436921</v>
+      </c>
+      <c r="C259" s="211" t="n">
+        <v>97</v>
+      </c>
+      <c r="D259" s="212" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="E259" s="213" t="n">
+        <v>508</v>
+      </c>
+      <c r="F259" s="214" t="n">
+        <v>486</v>
+      </c>
+      <c r="G259" s="215" t="n">
+        <v>22</v>
+      </c>
+      <c r="H259" s="214" t="n">
+        <v>90</v>
+      </c>
+      <c r="I259" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="260">
       <c r="B260" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -10843,7 +10843,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="210" t="n">
-        <v>44480.4839436921</v>
+        <v>44480.48394369213</v>
       </c>
       <c r="C259" s="211" t="n">
         <v>97</v>
@@ -10870,13 +10870,97 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" s="12" t="n"/>
+      <c r="A260" s="209" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" s="210" t="n">
+        <v>44484.48517282408</v>
+      </c>
+      <c r="C260" s="211" t="n">
+        <v>101</v>
+      </c>
+      <c r="D260" s="212" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="E260" s="213" t="n">
+        <v>517</v>
+      </c>
+      <c r="F260" s="214" t="n">
+        <v>506</v>
+      </c>
+      <c r="G260" s="215" t="n">
+        <v>11</v>
+      </c>
+      <c r="H260" s="214" t="n">
+        <v>93</v>
+      </c>
+      <c r="I260" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="261">
-      <c r="B261" s="12" t="n"/>
+      <c r="A261" s="209" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" s="210" t="n">
+        <v>44484.48925438657</v>
+      </c>
+      <c r="C261" s="211" t="n">
+        <v>101</v>
+      </c>
+      <c r="D261" s="212" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="E261" s="213" t="n">
+        <v>526</v>
+      </c>
+      <c r="F261" s="214" t="n">
+        <v>505</v>
+      </c>
+      <c r="G261" s="215" t="n">
+        <v>21</v>
+      </c>
+      <c r="H261" s="214" t="n">
+        <v>90</v>
+      </c>
+      <c r="I261" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="262">
-      <c r="B262" s="12" t="n"/>
+      <c r="A262" s="209" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" s="210" t="n">
+        <v>44484.49032859838</v>
+      </c>
+      <c r="C262" s="211" t="n">
+        <v>101</v>
+      </c>
+      <c r="D262" s="212" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="E262" s="213" t="n">
+        <v>509</v>
+      </c>
+      <c r="F262" s="214" t="n">
+        <v>503</v>
+      </c>
+      <c r="G262" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="H262" s="214" t="n">
+        <v>91</v>
+      </c>
+      <c r="I262" s="215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="263">
       <c r="B263" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -10936,7 +10936,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="210" t="n">
-        <v>44484.49032859838</v>
+        <v>44484.49032859954</v>
       </c>
       <c r="C262" s="211" t="n">
         <v>101</v>
@@ -10963,13 +10963,97 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" s="12" t="n"/>
+      <c r="A263" s="209" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" s="210" t="n">
+        <v>44488.47011790509</v>
+      </c>
+      <c r="C263" s="211" t="n">
+        <v>99</v>
+      </c>
+      <c r="D263" s="212" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="E263" s="213" t="n">
+        <v>511</v>
+      </c>
+      <c r="F263" s="214" t="n">
+        <v>494</v>
+      </c>
+      <c r="G263" s="215" t="n">
+        <v>17</v>
+      </c>
+      <c r="H263" s="214" t="n">
+        <v>92</v>
+      </c>
+      <c r="I263" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="264">
-      <c r="B264" s="12" t="n"/>
+      <c r="A264" s="209" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" s="210" t="n">
+        <v>44488.4716666551</v>
+      </c>
+      <c r="C264" s="211" t="n">
+        <v>95</v>
+      </c>
+      <c r="D264" s="212" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="E264" s="213" t="n">
+        <v>496</v>
+      </c>
+      <c r="F264" s="214" t="n">
+        <v>477</v>
+      </c>
+      <c r="G264" s="215" t="n">
+        <v>19</v>
+      </c>
+      <c r="H264" s="214" t="n">
+        <v>87</v>
+      </c>
+      <c r="I264" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="265">
-      <c r="B265" s="12" t="n"/>
+      <c r="A265" s="209" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" s="210" t="n">
+        <v>44488.47242805314</v>
+      </c>
+      <c r="C265" s="211" t="n">
+        <v>96</v>
+      </c>
+      <c r="D265" s="212" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="E265" s="213" t="n">
+        <v>511</v>
+      </c>
+      <c r="F265" s="214" t="n">
+        <v>482</v>
+      </c>
+      <c r="G265" s="215" t="n">
+        <v>29</v>
+      </c>
+      <c r="H265" s="214" t="n">
+        <v>88</v>
+      </c>
+      <c r="I265" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="266">
       <c r="B266" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -11029,7 +11029,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="210" t="n">
-        <v>44488.47242805314</v>
+        <v>44488.47242805555</v>
       </c>
       <c r="C265" s="211" t="n">
         <v>96</v>
@@ -11056,13 +11056,97 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" s="12" t="n"/>
+      <c r="A266" s="209" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" s="210" t="n">
+        <v>44491.510248125</v>
+      </c>
+      <c r="C266" s="211" t="n">
+        <v>109</v>
+      </c>
+      <c r="D266" s="212" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="E266" s="213" t="n">
+        <v>559</v>
+      </c>
+      <c r="F266" s="214" t="n">
+        <v>546</v>
+      </c>
+      <c r="G266" s="215" t="n">
+        <v>13</v>
+      </c>
+      <c r="H266" s="214" t="n">
+        <v>95</v>
+      </c>
+      <c r="I266" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="267">
-      <c r="B267" s="12" t="n"/>
+      <c r="A267" s="209" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" s="210" t="n">
+        <v>44491.51143605324</v>
+      </c>
+      <c r="C267" s="211" t="n">
+        <v>93</v>
+      </c>
+      <c r="D267" s="212" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="E267" s="213" t="n">
+        <v>499</v>
+      </c>
+      <c r="F267" s="214" t="n">
+        <v>465</v>
+      </c>
+      <c r="G267" s="215" t="n">
+        <v>34</v>
+      </c>
+      <c r="H267" s="214" t="n">
+        <v>88</v>
+      </c>
+      <c r="I267" s="215" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="268">
-      <c r="B268" s="12" t="n"/>
+      <c r="A268" s="209" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" s="210" t="n">
+        <v>44491.51249167697</v>
+      </c>
+      <c r="C268" s="211" t="n">
+        <v>96</v>
+      </c>
+      <c r="D268" s="212" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="E268" s="213" t="n">
+        <v>495</v>
+      </c>
+      <c r="F268" s="214" t="n">
+        <v>478</v>
+      </c>
+      <c r="G268" s="215" t="n">
+        <v>17</v>
+      </c>
+      <c r="H268" s="214" t="n">
+        <v>92</v>
+      </c>
+      <c r="I268" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="269">
       <c r="B269" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -11122,7 +11122,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="210" t="n">
-        <v>44491.51249167697</v>
+        <v>44491.51249167824</v>
       </c>
       <c r="C268" s="211" t="n">
         <v>96</v>
@@ -11149,13 +11149,97 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" s="12" t="n"/>
+      <c r="A269" s="209" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" s="210" t="n">
+        <v>44495.41645872685</v>
+      </c>
+      <c r="C269" s="211" t="n">
+        <v>98</v>
+      </c>
+      <c r="D269" s="212" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="E269" s="213" t="n">
+        <v>518</v>
+      </c>
+      <c r="F269" s="214" t="n">
+        <v>491</v>
+      </c>
+      <c r="G269" s="215" t="n">
+        <v>27</v>
+      </c>
+      <c r="H269" s="214" t="n">
+        <v>91</v>
+      </c>
+      <c r="I269" s="215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="270">
-      <c r="B270" s="12" t="n"/>
+      <c r="A270" s="209" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" s="210" t="n">
+        <v>44495.41776204861</v>
+      </c>
+      <c r="C270" s="211" t="n">
+        <v>94</v>
+      </c>
+      <c r="D270" s="212" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="E270" s="213" t="n">
+        <v>484</v>
+      </c>
+      <c r="F270" s="214" t="n">
+        <v>469</v>
+      </c>
+      <c r="G270" s="215" t="n">
+        <v>15</v>
+      </c>
+      <c r="H270" s="214" t="n">
+        <v>85</v>
+      </c>
+      <c r="I270" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="271">
-      <c r="B271" s="12" t="n"/>
+      <c r="A271" s="209" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" s="210" t="n">
+        <v>44495.50752447485</v>
+      </c>
+      <c r="C271" s="211" t="n">
+        <v>97</v>
+      </c>
+      <c r="D271" s="212" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="E271" s="213" t="n">
+        <v>492</v>
+      </c>
+      <c r="F271" s="214" t="n">
+        <v>486</v>
+      </c>
+      <c r="G271" s="215" t="n">
+        <v>6</v>
+      </c>
+      <c r="H271" s="214" t="n">
+        <v>94</v>
+      </c>
+      <c r="I271" s="215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="B272" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -11215,7 +11215,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="210" t="n">
-        <v>44495.50752447485</v>
+        <v>44495.50752447917</v>
       </c>
       <c r="C271" s="211" t="n">
         <v>97</v>
@@ -11242,13 +11242,97 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" s="12" t="n"/>
+      <c r="A272" s="209" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" s="210" t="n">
+        <v>44498.46306820602</v>
+      </c>
+      <c r="C272" s="211" t="n">
+        <v>97</v>
+      </c>
+      <c r="D272" s="212" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="E272" s="213" t="n">
+        <v>504</v>
+      </c>
+      <c r="F272" s="214" t="n">
+        <v>486</v>
+      </c>
+      <c r="G272" s="215" t="n">
+        <v>18</v>
+      </c>
+      <c r="H272" s="214" t="n">
+        <v>88</v>
+      </c>
+      <c r="I272" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="273">
-      <c r="B273" s="12" t="n"/>
+      <c r="A273" s="209" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" s="210" t="n">
+        <v>44498.46752637732</v>
+      </c>
+      <c r="C273" s="211" t="n">
+        <v>100</v>
+      </c>
+      <c r="D273" s="212" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="E273" s="213" t="n">
+        <v>519</v>
+      </c>
+      <c r="F273" s="214" t="n">
+        <v>502</v>
+      </c>
+      <c r="G273" s="215" t="n">
+        <v>17</v>
+      </c>
+      <c r="H273" s="214" t="n">
+        <v>91</v>
+      </c>
+      <c r="I273" s="215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="274">
-      <c r="B274" s="12" t="n"/>
+      <c r="A274" s="209" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" s="210" t="n">
+        <v>44498.46923012113</v>
+      </c>
+      <c r="C274" s="211" t="n">
+        <v>96</v>
+      </c>
+      <c r="D274" s="212" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="E274" s="213" t="n">
+        <v>519</v>
+      </c>
+      <c r="F274" s="214" t="n">
+        <v>479</v>
+      </c>
+      <c r="G274" s="215" t="n">
+        <v>40</v>
+      </c>
+      <c r="H274" s="214" t="n">
+        <v>87</v>
+      </c>
+      <c r="I274" s="215" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="275">
       <c r="B275" s="12" t="n"/>

--- a/Projects/WPMTracker/WPM.xlsx
+++ b/Projects/WPMTracker/WPM.xlsx
@@ -11308,7 +11308,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="210" t="n">
-        <v>44498.46923012113</v>
+        <v>44498.46923011574</v>
       </c>
       <c r="C274" s="211" t="n">
         <v>96</v>
@@ -11335,16 +11335,128 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" s="12" t="n"/>
+      <c r="A275" s="209" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" s="210" t="n">
+        <v>44502.59495648148</v>
+      </c>
+      <c r="C275" s="211" t="n">
+        <v>93</v>
+      </c>
+      <c r="D275" s="212" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="E275" s="213" t="n">
+        <v>497</v>
+      </c>
+      <c r="F275" s="214" t="n">
+        <v>467</v>
+      </c>
+      <c r="G275" s="215" t="n">
+        <v>30</v>
+      </c>
+      <c r="H275" s="214" t="n">
+        <v>86</v>
+      </c>
+      <c r="I275" s="215" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="276">
-      <c r="B276" s="12" t="n"/>
+      <c r="A276" s="209" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" s="210" t="n">
+        <v>44502.5959178125</v>
+      </c>
+      <c r="C276" s="211" t="n">
+        <v>94</v>
+      </c>
+      <c r="D276" s="212" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="E276" s="213" t="n">
+        <v>505</v>
+      </c>
+      <c r="F276" s="214" t="n">
+        <v>468</v>
+      </c>
+      <c r="G276" s="215" t="n">
+        <v>37</v>
+      </c>
+      <c r="H276" s="214" t="n">
+        <v>86</v>
+      </c>
+      <c r="I276" s="215" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="277">
-      <c r="B277" s="12" t="n"/>
+      <c r="A277" s="209" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" s="210" t="n">
+        <v>44503.68034586806</v>
+      </c>
+      <c r="C277" s="211" t="n">
+        <v>97</v>
+      </c>
+      <c r="D277" s="212" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="E277" s="213" t="n">
+        <v>516</v>
+      </c>
+      <c r="F277" s="214" t="n">
+        <v>484</v>
+      </c>
+      <c r="G277" s="215" t="n">
+        <v>32</v>
+      </c>
+      <c r="H277" s="214" t="n">
+        <v>89</v>
+      </c>
+      <c r="I277" s="215" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="278">
-      <c r="B278" s="12" t="n"/>
+      <c r="A278" s="209" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" s="210" t="n">
+        <v>44503.68231322149</v>
+      </c>
+      <c r="C278" s="211" t="n">
+        <v>92</v>
+      </c>
+      <c r="D278" s="212" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="E278" s="213" t="n">
+        <v>483</v>
+      </c>
+      <c r="F278" s="214" t="n">
+        <v>461</v>
+      </c>
+      <c r="G278" s="215" t="n">
+        <v>22</v>
+      </c>
+      <c r="H278" s="214" t="n">
+        <v>86</v>
+      </c>
+      <c r="I278" s="215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="279">
       <c r="B279" s="12" t="n"/>
